--- a/teaching/traditional_assets/database/data/poland/poland_coal_related_energy.xlsx
+++ b/teaching/traditional_assets/database/data/poland/poland_coal_related_energy.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="wse_lwb" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +593,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.00752</v>
+        <v>0.00376</v>
       </c>
       <c r="E2">
-        <v>-0.0266</v>
+        <v>-0.194</v>
       </c>
       <c r="G2">
-        <v>0.2193321417536559</v>
+        <v>0.4007933989859395</v>
       </c>
       <c r="H2">
-        <v>0.2174254838999856</v>
+        <v>0.4007933989859395</v>
       </c>
       <c r="I2">
-        <v>0.1132216774290782</v>
+        <v>0.04467728480315247</v>
       </c>
       <c r="J2">
-        <v>0.1064437810931878</v>
+        <v>0.03983582998608081</v>
       </c>
       <c r="K2">
-        <v>55.892</v>
+        <v>20.227</v>
       </c>
       <c r="L2">
-        <v>0.1092994059049683</v>
+        <v>0.04140371849483451</v>
       </c>
       <c r="M2">
-        <v>6.37</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.02012892624660305</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1139697988978745</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>6.37</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.02012892624660305</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.1139697988978745</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>74.2</v>
+        <v>87.5</v>
       </c>
       <c r="V2">
-        <v>0.2344688112241674</v>
+        <v>0.4992610935814993</v>
       </c>
       <c r="W2">
-        <v>0.07496270512182994</v>
+        <v>0.002082217945030718</v>
       </c>
       <c r="X2">
-        <v>0.09969581136485417</v>
+        <v>0.06479629453279959</v>
       </c>
       <c r="Y2">
-        <v>-0.02473310624302423</v>
+        <v>-0.06271407658776887</v>
       </c>
       <c r="Z2">
-        <v>0.6400167864268405</v>
+        <v>0.6561172510953928</v>
       </c>
       <c r="AA2">
-        <v>0.06342162423965299</v>
+        <v>0.01140564146656471</v>
       </c>
       <c r="AB2">
-        <v>0.09613006375897122</v>
+        <v>0.06027102408898272</v>
       </c>
       <c r="AC2">
-        <v>-0.03268832770711606</v>
+        <v>-0.048865382622418</v>
       </c>
       <c r="AD2">
-        <v>15.02</v>
+        <v>7.763000000000001</v>
       </c>
       <c r="AE2">
-        <v>9.366418499010098</v>
+        <v>0.1688068891556096</v>
       </c>
       <c r="AF2">
-        <v>24.3864184990101</v>
+        <v>7.93180688915561</v>
       </c>
       <c r="AG2">
-        <v>-49.8135815009899</v>
+        <v>-79.56819311084439</v>
       </c>
       <c r="AH2">
-        <v>0.0715466473328395</v>
+        <v>0.04329806186155923</v>
       </c>
       <c r="AI2">
-        <v>0.02972447609971329</v>
+        <v>0.009114590878388696</v>
       </c>
       <c r="AJ2">
-        <v>-0.186815115617894</v>
+        <v>-0.8315134514751557</v>
       </c>
       <c r="AK2">
-        <v>-0.06675496145762899</v>
+        <v>-0.10165447783076</v>
       </c>
       <c r="AL2">
-        <v>0.527</v>
+        <v>1.105</v>
       </c>
       <c r="AM2">
-        <v>-1.219</v>
+        <v>1.105</v>
       </c>
       <c r="AN2">
-        <v>0.09521334254616452</v>
+        <v>0.06665121230853768</v>
       </c>
       <c r="AO2">
-        <v>111.5445920303605</v>
+        <v>19.71764705882353</v>
       </c>
       <c r="AP2">
-        <v>-0.315773475293278</v>
+        <v>-0.6831529733398961</v>
       </c>
       <c r="AQ2">
-        <v>-48.2231337161608</v>
+        <v>19.71764705882353</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +715,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cenospheres Trade &amp; Engineering S.A. (WSE:CTE)</t>
+          <t>Lubelski Wegiel Bogdanka S.A. (WSE:LWB)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -724,23 +723,29 @@
           <t>Coal &amp; Related Energy</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.00376</v>
+      </c>
+      <c r="E3">
+        <v>-0.194</v>
+      </c>
       <c r="G3">
-        <v>-0.7038461538461538</v>
+        <v>0.4008188331627431</v>
       </c>
       <c r="H3">
-        <v>-0.7038461538461538</v>
+        <v>0.4008188331627431</v>
       </c>
       <c r="I3">
-        <v>-0.7999999999999999</v>
+        <v>0.04470468499932216</v>
       </c>
       <c r="J3">
-        <v>-0.7999999999999999</v>
+        <v>0.03501583691962117</v>
       </c>
       <c r="K3">
-        <v>-0.518</v>
+        <v>20.6</v>
       </c>
       <c r="L3">
-        <v>-0.9961538461538462</v>
+        <v>0.0421699078812692</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -749,7 +754,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -758,79 +763,79 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.5005720823798626</v>
       </c>
       <c r="W3">
-        <v>3.083333333333333</v>
+        <v>0.02597730138713746</v>
       </c>
       <c r="X3">
-        <v>0.09613006375897122</v>
+        <v>0.06074559857105616</v>
       </c>
       <c r="Y3">
-        <v>2.987203269574362</v>
+        <v>-0.0347682971839187</v>
       </c>
       <c r="Z3">
-        <v>-3.095238095238095</v>
+        <v>0.6714972249005073</v>
       </c>
       <c r="AA3">
-        <v>2.476190476190476</v>
+        <v>0.02351303731909434</v>
       </c>
       <c r="AB3">
-        <v>0.09613006375897122</v>
+        <v>0.05929942596754721</v>
       </c>
       <c r="AC3">
-        <v>2.380060412431505</v>
+        <v>-0.03578638864845288</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>7.65</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.1688068891556096</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>7.81880688915561</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>-79.68119311084439</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.04281490511490091</v>
       </c>
       <c r="AI3">
-        <v>-0</v>
+        <v>0.009169267554540957</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>-0.8377017723077511</v>
       </c>
       <c r="AK3">
-        <v>-0</v>
+        <v>-0.1041286392774014</v>
       </c>
       <c r="AL3">
-        <v>0.058</v>
+        <v>1.1</v>
       </c>
       <c r="AM3">
-        <v>0.052</v>
+        <v>1.1</v>
       </c>
       <c r="AN3">
-        <v>-0</v>
+        <v>0.0656810220482176</v>
       </c>
       <c r="AO3">
-        <v>-7.172413793103448</v>
+        <v>19.81818181818182</v>
       </c>
       <c r="AP3">
-        <v>-0</v>
+        <v>-0.6841231636002162</v>
       </c>
       <c r="AQ3">
-        <v>-7.999999999999999</v>
+        <v>19.81818181818182</v>
       </c>
     </row>
     <row r="4">
@@ -841,252 +846,8833 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Clean&amp;Carbon Energy S.A. (WSE:CCE)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Coal &amp; Related Energy</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>-0.3870967741935484</v>
+      </c>
+      <c r="J4">
+        <v>-0.3870967741935484</v>
+      </c>
+      <c r="K4">
+        <v>-0.373</v>
+      </c>
+      <c r="L4">
+        <v>-12.03225806451613</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>-0.02181286549707602</v>
+      </c>
+      <c r="X4">
+        <v>0.06884699049454301</v>
+      </c>
+      <c r="Y4">
+        <v>-0.09065985599161903</v>
+      </c>
+      <c r="Z4">
+        <v>0.001812865497076023</v>
+      </c>
+      <c r="AA4">
+        <v>-0.0007017543859649122</v>
+      </c>
+      <c r="AB4">
+        <v>0.06124262221041821</v>
+      </c>
+      <c r="AC4">
+        <v>-0.06194437659638313</v>
+      </c>
+      <c r="AD4">
+        <v>0.113</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0.113</v>
+      </c>
+      <c r="AG4">
+        <v>0.113</v>
+      </c>
+      <c r="AH4">
+        <v>0.1975524475524475</v>
+      </c>
+      <c r="AI4">
+        <v>0.00645234968309256</v>
+      </c>
+      <c r="AJ4">
+        <v>0.1975524475524475</v>
+      </c>
+      <c r="AK4">
+        <v>0.00645234968309256</v>
+      </c>
+      <c r="AL4">
+        <v>0.005</v>
+      </c>
+      <c r="AM4">
+        <v>0.005</v>
+      </c>
+      <c r="AO4">
+        <v>-2.4</v>
+      </c>
+      <c r="AQ4">
+        <v>-2.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Lubelski Wegiel Bogdanka S.A. (WSE:LWB)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WSE:LWB</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Coal &amp; Related Energy</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.0428149051149009</v>
+      </c>
+      <c r="F2">
+        <v>0.53</v>
+      </c>
+      <c r="G2">
+        <v>174.8</v>
+      </c>
+      <c r="H2">
+        <v>92.6099247500231</v>
+      </c>
+      <c r="I2">
+        <v>95.11880688915559</v>
+      </c>
+      <c r="J2">
+        <v>101.897892401276</v>
+      </c>
+      <c r="K2">
+        <v>7.81880688915561</v>
+      </c>
+      <c r="L2">
+        <v>96.7879676512525</v>
+      </c>
+      <c r="M2">
+        <v>0.0592994259675472</v>
+      </c>
+      <c r="N2">
+        <v>0.0559730531034636</v>
+      </c>
+      <c r="O2">
+        <v>0.0269682820120706</v>
+      </c>
+      <c r="P2">
+        <v>0.013122</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0607455985710562</v>
+      </c>
+      <c r="T2">
+        <v>0.104294453411625</v>
+      </c>
+      <c r="U2">
+        <v>0.928402365200318</v>
+      </c>
+      <c r="V2">
+        <v>1.71429777625101</v>
+      </c>
+      <c r="W2">
+        <v>13.94929028425211</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>174.8</v>
+      </c>
+      <c r="AB2">
+        <v>0.05541304126250898</v>
+      </c>
+      <c r="AC2">
+        <v>0.0332941753235439</v>
+      </c>
+      <c r="AD2">
+        <v>0.19</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>116.472</v>
+      </c>
+      <c r="AH2">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="AI2">
+        <v>236.9</v>
+      </c>
+      <c r="AJ2">
+        <v>7.81880688915561</v>
+      </c>
+      <c r="AK2">
+        <v>7.65</v>
+      </c>
+      <c r="AL2">
+        <v>1.1</v>
+      </c>
+      <c r="AM2">
+        <v>7.649999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>87.5</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05894682875955033</v>
+      </c>
+      <c r="C2">
+        <v>183.2943510593491</v>
+      </c>
+      <c r="D2">
+        <v>95.79435105934914</v>
+      </c>
+      <c r="E2">
+        <v>-7.81880688915561</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>87.5</v>
+      </c>
+      <c r="H2">
+        <v>174.8</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>116.472</v>
+      </c>
+      <c r="K2">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L2">
+        <v>21.872</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>21.872</v>
+      </c>
+      <c r="O2">
+        <v>4.15568</v>
+      </c>
+      <c r="P2">
+        <v>17.71632</v>
+      </c>
+      <c r="Q2">
+        <v>112.31632</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05894682875955033</v>
+      </c>
+      <c r="T2">
+        <v>0.8959412374490999</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.19</v>
+      </c>
+      <c r="W2">
+        <v>0.013122</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.0588907197849072</v>
+      </c>
+      <c r="C3">
+        <v>181.5765486488602</v>
+      </c>
+      <c r="D3">
+        <v>95.90273671775172</v>
+      </c>
+      <c r="E3">
+        <v>-5.992618820264054</v>
+      </c>
+      <c r="F3">
+        <v>1.826188068891556</v>
+      </c>
+      <c r="G3">
+        <v>87.5</v>
+      </c>
+      <c r="H3">
+        <v>174.8</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>116.472</v>
+      </c>
+      <c r="K3">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L3">
+        <v>21.872</v>
+      </c>
+      <c r="M3">
+        <v>0.02958424671604321</v>
+      </c>
+      <c r="N3">
+        <v>21.84241575328396</v>
+      </c>
+      <c r="O3">
+        <v>4.150058993123952</v>
+      </c>
+      <c r="P3">
+        <v>17.69235676016</v>
+      </c>
+      <c r="Q3">
+        <v>112.29235676016</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.05935303008576484</v>
+      </c>
+      <c r="T3">
+        <v>0.9032716657555018</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.19</v>
+      </c>
+      <c r="W3">
+        <v>0.013122</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>739.3123850653617</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05883461081026404</v>
+      </c>
+      <c r="C4">
+        <v>179.8589917801473</v>
+      </c>
       <c r="D4">
-        <v>0.00752</v>
+        <v>96.01136791793046</v>
       </c>
       <c r="E4">
-        <v>-0.0266</v>
+        <v>-4.166430751372498</v>
+      </c>
+      <c r="F4">
+        <v>3.652376137783112</v>
       </c>
       <c r="G4">
-        <v>0.2229399099628107</v>
+        <v>87.5</v>
       </c>
       <c r="H4">
-        <v>0.2229399099628107</v>
+        <v>174.8</v>
       </c>
       <c r="I4">
-        <v>0.1192282566063769</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09781583501176232</v>
+        <v>116.472</v>
       </c>
       <c r="K4">
-        <v>60.3</v>
+        <v>94.60000000000001</v>
       </c>
       <c r="L4">
-        <v>0.1180270111567821</v>
+        <v>21.872</v>
       </c>
       <c r="M4">
-        <v>6.37</v>
+        <v>0.05916849343208642</v>
       </c>
       <c r="N4">
-        <v>0.02039052496798976</v>
+        <v>21.81283150656791</v>
       </c>
       <c r="O4">
-        <v>0.1056384742951907</v>
+        <v>4.144437986247904</v>
       </c>
       <c r="P4">
-        <v>6.37</v>
+        <v>17.66839352032001</v>
       </c>
       <c r="Q4">
-        <v>0.02039052496798976</v>
+        <v>112.26839352032</v>
       </c>
       <c r="R4">
-        <v>0.1056384742951907</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0597675212349633</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.9107516946395852</v>
       </c>
       <c r="U4">
-        <v>74.2</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
-        <v>0.237516005121639</v>
+        <v>0.19</v>
       </c>
       <c r="W4">
-        <v>0.07496270512182994</v>
-      </c>
-      <c r="X4">
-        <v>0.09969581136485417</v>
+        <v>0.013122</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
       </c>
       <c r="Y4">
-        <v>-0.02473310624302423</v>
+        <v>369.6561925326808</v>
       </c>
       <c r="Z4">
-        <v>0.6483778851555738</v>
-      </c>
-      <c r="AA4">
-        <v>0.06342162423965299</v>
-      </c>
-      <c r="AB4">
-        <v>0.09610995194676905</v>
-      </c>
-      <c r="AC4">
-        <v>-0.03268832770711606</v>
-      </c>
-      <c r="AD4">
-        <v>8.51</v>
-      </c>
-      <c r="AE4">
-        <v>9.366418499010098</v>
-      </c>
-      <c r="AF4">
-        <v>17.8764184990101</v>
-      </c>
-      <c r="AG4">
-        <v>-56.3235815009899</v>
-      </c>
-      <c r="AH4">
-        <v>0.05412562780065292</v>
-      </c>
-      <c r="AI4">
-        <v>0.02197533707491467</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.2199483335136056</v>
-      </c>
-      <c r="AK4">
-        <v>-0.07618744503625111</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>-1.74</v>
-      </c>
-      <c r="AN4">
-        <v>0.05322509021996785</v>
-      </c>
-      <c r="AP4">
-        <v>-0.3522711758991657</v>
-      </c>
-      <c r="AQ4">
-        <v>-35.51724137931034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fluid S.A. (WSE:FLD)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Coal &amp; Related Energy</t>
-        </is>
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05877850183562088</v>
+      </c>
+      <c r="C5">
+        <v>178.141681288549</v>
+      </c>
+      <c r="D5">
+        <v>96.1202454952237</v>
+      </c>
+      <c r="E5">
+        <v>-2.340242682480942</v>
+      </c>
+      <c r="F5">
+        <v>5.478564206674668</v>
       </c>
       <c r="G5">
-        <v>25.46296296296296</v>
+        <v>87.5</v>
       </c>
       <c r="H5">
-        <v>43.51851851851852</v>
+        <v>174.8</v>
       </c>
       <c r="I5">
-        <v>48.14814814814815</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>48.14814814814815</v>
+        <v>116.472</v>
       </c>
       <c r="K5">
-        <v>-3.89</v>
+        <v>94.60000000000001</v>
       </c>
       <c r="L5">
-        <v>72.03703703703704</v>
+        <v>21.872</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>0.08875274014812962</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>21.78324725985187</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>4.138816979371855</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>17.64443028048002</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>112.24443028048</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.06019055859342359</v>
+      </c>
+      <c r="T5">
+        <v>0.9183859509233403</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="W5">
-        <v>-0.7353497164461248</v>
-      </c>
-      <c r="X5">
-        <v>0.3227557169474803</v>
+        <v>0.013122</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
       </c>
       <c r="Y5">
-        <v>-1.058105433393605</v>
+        <v>246.4374616884539</v>
       </c>
       <c r="Z5">
-        <v>-0.004825737265415549</v>
-      </c>
-      <c r="AA5">
-        <v>-0.2323503127792672</v>
-      </c>
-      <c r="AB5">
-        <v>0.1323691344675395</v>
-      </c>
-      <c r="AC5">
-        <v>-0.3647194472468066</v>
-      </c>
-      <c r="AD5">
-        <v>6.51</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>6.51</v>
-      </c>
-      <c r="AG5">
-        <v>6.51</v>
-      </c>
-      <c r="AH5">
-        <v>0.7843373493975903</v>
-      </c>
-      <c r="AI5">
-        <v>0.8554533508541393</v>
-      </c>
-      <c r="AJ5">
-        <v>0.7843373493975903</v>
-      </c>
-      <c r="AK5">
-        <v>0.8554533508541393</v>
-      </c>
-      <c r="AL5">
-        <v>0.469</v>
-      </c>
-      <c r="AM5">
-        <v>0.469</v>
-      </c>
-      <c r="AN5">
-        <v>-3.616666666666666</v>
-      </c>
-      <c r="AO5">
-        <v>-5.543710021321962</v>
-      </c>
-      <c r="AP5">
-        <v>-3.616666666666666</v>
-      </c>
-      <c r="AQ5">
-        <v>-5.543710021321962</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.05872239286097774</v>
+      </c>
+      <c r="C6">
+        <v>176.424618013197</v>
+      </c>
+      <c r="D6">
+        <v>96.22937028876325</v>
+      </c>
+      <c r="E6">
+        <v>-0.5140546135893853</v>
+      </c>
+      <c r="F6">
+        <v>7.304752275566225</v>
+      </c>
+      <c r="G6">
+        <v>87.5</v>
+      </c>
+      <c r="H6">
+        <v>174.8</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>116.472</v>
+      </c>
+      <c r="K6">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L6">
+        <v>21.872</v>
+      </c>
+      <c r="M6">
+        <v>0.1183369868641728</v>
+      </c>
+      <c r="N6">
+        <v>21.75366301313583</v>
+      </c>
+      <c r="O6">
+        <v>4.133195972495807</v>
+      </c>
+      <c r="P6">
+        <v>17.62046704064002</v>
+      </c>
+      <c r="Q6">
+        <v>112.22046704064</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.06062240923018515</v>
+      </c>
+      <c r="T6">
+        <v>0.926179254213007</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.19</v>
+      </c>
+      <c r="W6">
+        <v>0.013122</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>184.8280962663405</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.05866628388633459</v>
+      </c>
+      <c r="C7">
+        <v>174.7078027970381</v>
+      </c>
+      <c r="D7">
+        <v>96.3387431414959</v>
+      </c>
+      <c r="E7">
+        <v>1.312133455302172</v>
+      </c>
+      <c r="F7">
+        <v>9.130940344457782</v>
+      </c>
+      <c r="G7">
+        <v>87.5</v>
+      </c>
+      <c r="H7">
+        <v>174.8</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>116.472</v>
+      </c>
+      <c r="K7">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L7">
+        <v>21.872</v>
+      </c>
+      <c r="M7">
+        <v>0.1479212335802161</v>
+      </c>
+      <c r="N7">
+        <v>21.72407876641978</v>
+      </c>
+      <c r="O7">
+        <v>4.127574965619758</v>
+      </c>
+      <c r="P7">
+        <v>17.59650380080003</v>
+      </c>
+      <c r="Q7">
+        <v>112.1965038008</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.06106335145929957</v>
+      </c>
+      <c r="T7">
+        <v>0.9341366270456142</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.19</v>
+      </c>
+      <c r="W7">
+        <v>0.013122</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>147.8624770130723</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.05861017491169145</v>
+      </c>
+      <c r="C8">
+        <v>172.9912364868558</v>
+      </c>
+      <c r="D8">
+        <v>96.44836490020512</v>
+      </c>
+      <c r="E8">
+        <v>3.138321524193726</v>
+      </c>
+      <c r="F8">
+        <v>10.95712841334934</v>
+      </c>
+      <c r="G8">
+        <v>87.5</v>
+      </c>
+      <c r="H8">
+        <v>174.8</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>116.472</v>
+      </c>
+      <c r="K8">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L8">
+        <v>21.872</v>
+      </c>
+      <c r="M8">
+        <v>0.1775054802962592</v>
+      </c>
+      <c r="N8">
+        <v>21.69449451970374</v>
+      </c>
+      <c r="O8">
+        <v>4.121953958743711</v>
+      </c>
+      <c r="P8">
+        <v>17.57254056096003</v>
+      </c>
+      <c r="Q8">
+        <v>112.17254056096</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.06151367543796962</v>
+      </c>
+      <c r="T8">
+        <v>0.9422633056831703</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.19</v>
+      </c>
+      <c r="W8">
+        <v>0.013122</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>123.218730844227</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.05855406593704831</v>
+      </c>
+      <c r="C9">
+        <v>171.274919933292</v>
+      </c>
+      <c r="D9">
+        <v>96.55823641553289</v>
+      </c>
+      <c r="E9">
+        <v>4.964509593085285</v>
+      </c>
+      <c r="F9">
+        <v>12.7833164822409</v>
+      </c>
+      <c r="G9">
+        <v>87.5</v>
+      </c>
+      <c r="H9">
+        <v>174.8</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>116.472</v>
+      </c>
+      <c r="K9">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L9">
+        <v>21.872</v>
+      </c>
+      <c r="M9">
+        <v>0.2070897270123025</v>
+      </c>
+      <c r="N9">
+        <v>21.6649102729877</v>
+      </c>
+      <c r="O9">
+        <v>4.116332951867663</v>
+      </c>
+      <c r="P9">
+        <v>17.54857732112004</v>
+      </c>
+      <c r="Q9">
+        <v>112.14857732112</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06197368380327775</v>
+      </c>
+      <c r="T9">
+        <v>0.9505647516032548</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.19</v>
+      </c>
+      <c r="W9">
+        <v>0.013122</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>105.6160550093374</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.05849795696240516</v>
+      </c>
+      <c r="C10">
+        <v>169.5588539908694</v>
+      </c>
+      <c r="D10">
+        <v>96.66835854200181</v>
+      </c>
+      <c r="E10">
+        <v>6.790697661976839</v>
+      </c>
+      <c r="F10">
+        <v>14.60950455113245</v>
+      </c>
+      <c r="G10">
+        <v>87.5</v>
+      </c>
+      <c r="H10">
+        <v>174.8</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>116.472</v>
+      </c>
+      <c r="K10">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L10">
+        <v>21.872</v>
+      </c>
+      <c r="M10">
+        <v>0.2366739737283457</v>
+      </c>
+      <c r="N10">
+        <v>21.63532602627165</v>
+      </c>
+      <c r="O10">
+        <v>4.110711944991614</v>
+      </c>
+      <c r="P10">
+        <v>17.52461408128004</v>
+      </c>
+      <c r="Q10">
+        <v>112.12461408128</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.06244369235044039</v>
+      </c>
+      <c r="T10">
+        <v>0.9590466637389932</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.19</v>
+      </c>
+      <c r="W10">
+        <v>0.013122</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>92.41404813317021</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.05844184798776201</v>
+      </c>
+      <c r="C11">
+        <v>167.8430395180131</v>
+      </c>
+      <c r="D11">
+        <v>96.77873213803709</v>
+      </c>
+      <c r="E11">
+        <v>8.616885730868397</v>
+      </c>
+      <c r="F11">
+        <v>16.43569262002401</v>
+      </c>
+      <c r="G11">
+        <v>87.5</v>
+      </c>
+      <c r="H11">
+        <v>174.8</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>116.472</v>
+      </c>
+      <c r="K11">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L11">
+        <v>21.872</v>
+      </c>
+      <c r="M11">
+        <v>0.2662582204443889</v>
+      </c>
+      <c r="N11">
+        <v>21.60574177955561</v>
+      </c>
+      <c r="O11">
+        <v>4.105090938115566</v>
+      </c>
+      <c r="P11">
+        <v>17.50065084144005</v>
+      </c>
+      <c r="Q11">
+        <v>112.1006508414401</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.06292403075578243</v>
+      </c>
+      <c r="T11">
+        <v>0.9677149915260662</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.19</v>
+      </c>
+      <c r="W11">
+        <v>0.013122</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>82.14582056281796</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.05838573901311887</v>
+      </c>
+      <c r="C12">
+        <v>166.1274773770733</v>
+      </c>
+      <c r="D12">
+        <v>96.88935806598893</v>
+      </c>
+      <c r="E12">
+        <v>10.44307379975995</v>
+      </c>
+      <c r="F12">
+        <v>18.26188068891556</v>
+      </c>
+      <c r="G12">
+        <v>87.5</v>
+      </c>
+      <c r="H12">
+        <v>174.8</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>116.472</v>
+      </c>
+      <c r="K12">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L12">
+        <v>21.872</v>
+      </c>
+      <c r="M12">
+        <v>0.2958424671604321</v>
+      </c>
+      <c r="N12">
+        <v>21.57615753283957</v>
+      </c>
+      <c r="O12">
+        <v>4.099469931239518</v>
+      </c>
+      <c r="P12">
+        <v>17.47668760160005</v>
+      </c>
+      <c r="Q12">
+        <v>112.0766876016001</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.06341504334790986</v>
+      </c>
+      <c r="T12">
+        <v>0.976575948819519</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.19</v>
+      </c>
+      <c r="W12">
+        <v>0.013122</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>73.93123850653616</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.05832963003847572</v>
+      </c>
+      <c r="C13">
+        <v>164.4121684343479</v>
+      </c>
+      <c r="D13">
+        <v>97.00023719215505</v>
+      </c>
+      <c r="E13">
+        <v>12.26926186865151</v>
+      </c>
+      <c r="F13">
+        <v>20.08806875780712</v>
+      </c>
+      <c r="G13">
+        <v>87.5</v>
+      </c>
+      <c r="H13">
+        <v>174.8</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>116.472</v>
+      </c>
+      <c r="K13">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L13">
+        <v>21.872</v>
+      </c>
+      <c r="M13">
+        <v>0.3254267138764753</v>
+      </c>
+      <c r="N13">
+        <v>21.54657328612353</v>
+      </c>
+      <c r="O13">
+        <v>4.09384892436347</v>
+      </c>
+      <c r="P13">
+        <v>17.45272436176005</v>
+      </c>
+      <c r="Q13">
+        <v>112.0527243617601</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.0639170899308716</v>
+      </c>
+      <c r="T13">
+        <v>0.9856360287487794</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.19</v>
+      </c>
+      <c r="W13">
+        <v>0.013122</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>67.21021682412379</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.05827352106383258</v>
+      </c>
+      <c r="C14">
+        <v>162.6971135601046</v>
+      </c>
+      <c r="D14">
+        <v>97.11137038680324</v>
+      </c>
+      <c r="E14">
+        <v>14.09544993754306</v>
+      </c>
+      <c r="F14">
+        <v>21.91425682669867</v>
+      </c>
+      <c r="G14">
+        <v>87.5</v>
+      </c>
+      <c r="H14">
+        <v>174.8</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>116.472</v>
+      </c>
+      <c r="K14">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L14">
+        <v>21.872</v>
+      </c>
+      <c r="M14">
+        <v>0.3550109605925185</v>
+      </c>
+      <c r="N14">
+        <v>21.51698903940748</v>
+      </c>
+      <c r="O14">
+        <v>4.088227917487421</v>
+      </c>
+      <c r="P14">
+        <v>17.42876112192006</v>
+      </c>
+      <c r="Q14">
+        <v>112.0287611219201</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.06443054666344611</v>
+      </c>
+      <c r="T14">
+        <v>0.9949020195855232</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.19</v>
+      </c>
+      <c r="W14">
+        <v>0.013122</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>61.60936542211348</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.05821741208918944</v>
+      </c>
+      <c r="C15">
+        <v>160.9823136286038</v>
+      </c>
+      <c r="D15">
+        <v>97.22275852419406</v>
+      </c>
+      <c r="E15">
+        <v>15.92163800643462</v>
+      </c>
+      <c r="F15">
+        <v>23.74044489559023</v>
+      </c>
+      <c r="G15">
+        <v>87.5</v>
+      </c>
+      <c r="H15">
+        <v>174.8</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>116.472</v>
+      </c>
+      <c r="K15">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L15">
+        <v>21.872</v>
+      </c>
+      <c r="M15">
+        <v>0.3845952073085618</v>
+      </c>
+      <c r="N15">
+        <v>21.48740479269144</v>
+      </c>
+      <c r="O15">
+        <v>4.082606910611373</v>
+      </c>
+      <c r="P15">
+        <v>17.40479788208007</v>
+      </c>
+      <c r="Q15">
+        <v>112.0047978820801</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.06495580699906832</v>
+      </c>
+      <c r="T15">
+        <v>1.00438102170587</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.19</v>
+      </c>
+      <c r="W15">
+        <v>0.013122</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>56.87018346656628</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.05816130311454629</v>
+      </c>
+      <c r="C16">
+        <v>159.2677695181222</v>
+      </c>
+      <c r="D16">
+        <v>97.33440248260392</v>
+      </c>
+      <c r="E16">
+        <v>17.74782607532618</v>
+      </c>
+      <c r="F16">
+        <v>25.56663296448179</v>
+      </c>
+      <c r="G16">
+        <v>87.5</v>
+      </c>
+      <c r="H16">
+        <v>174.8</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>116.472</v>
+      </c>
+      <c r="K16">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L16">
+        <v>21.872</v>
+      </c>
+      <c r="M16">
+        <v>0.414179454024605</v>
+      </c>
+      <c r="N16">
+        <v>21.45782054597539</v>
+      </c>
+      <c r="O16">
+        <v>4.076985903735325</v>
+      </c>
+      <c r="P16">
+        <v>17.38083464224007</v>
+      </c>
+      <c r="Q16">
+        <v>111.9808346422401</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.06549328269133289</v>
+      </c>
+      <c r="T16">
+        <v>1.014080465735993</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.19</v>
+      </c>
+      <c r="W16">
+        <v>0.013122</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>52.80802750466869</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.05810519413990314</v>
+      </c>
+      <c r="C17">
+        <v>157.5534821109746</v>
+      </c>
+      <c r="D17">
+        <v>97.44630314434795</v>
+      </c>
+      <c r="E17">
+        <v>19.57401414421773</v>
+      </c>
+      <c r="F17">
+        <v>27.39282103337334</v>
+      </c>
+      <c r="G17">
+        <v>87.5</v>
+      </c>
+      <c r="H17">
+        <v>174.8</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>116.472</v>
+      </c>
+      <c r="K17">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L17">
+        <v>21.872</v>
+      </c>
+      <c r="M17">
+        <v>0.4437637007406481</v>
+      </c>
+      <c r="N17">
+        <v>21.42823629925935</v>
+      </c>
+      <c r="O17">
+        <v>4.071364896859277</v>
+      </c>
+      <c r="P17">
+        <v>17.35687140240007</v>
+      </c>
+      <c r="Q17">
+        <v>111.9568714024001</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.06604340487047429</v>
+      </c>
+      <c r="T17">
+        <v>1.024008131978589</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.19</v>
+      </c>
+      <c r="W17">
+        <v>0.013122</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>49.28749233769079</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.05804908516526</v>
+      </c>
+      <c r="C18">
+        <v>155.8394522935386</v>
+      </c>
+      <c r="D18">
+        <v>97.55846139580352</v>
+      </c>
+      <c r="E18">
+        <v>21.40020221310929</v>
+      </c>
+      <c r="F18">
+        <v>29.2190091022649</v>
+      </c>
+      <c r="G18">
+        <v>87.5</v>
+      </c>
+      <c r="H18">
+        <v>174.8</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>116.472</v>
+      </c>
+      <c r="K18">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L18">
+        <v>21.872</v>
+      </c>
+      <c r="M18">
+        <v>0.4733479474566913</v>
+      </c>
+      <c r="N18">
+        <v>21.39865205254331</v>
+      </c>
+      <c r="O18">
+        <v>4.065743889983229</v>
+      </c>
+      <c r="P18">
+        <v>17.33290816256008</v>
+      </c>
+      <c r="Q18">
+        <v>111.9329081625601</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.0666066251967381</v>
+      </c>
+      <c r="T18">
+        <v>1.034172171226961</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.19</v>
+      </c>
+      <c r="W18">
+        <v>0.013122</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>46.20702406658511</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.05799297619061684</v>
+      </c>
+      <c r="C19">
+        <v>154.125680956277</v>
+      </c>
+      <c r="D19">
+        <v>97.67087812743344</v>
+      </c>
+      <c r="E19">
+        <v>23.22639028200085</v>
+      </c>
+      <c r="F19">
+        <v>31.04519717115646</v>
+      </c>
+      <c r="G19">
+        <v>87.5</v>
+      </c>
+      <c r="H19">
+        <v>174.8</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>116.472</v>
+      </c>
+      <c r="K19">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L19">
+        <v>21.872</v>
+      </c>
+      <c r="M19">
+        <v>0.5029321941727346</v>
+      </c>
+      <c r="N19">
+        <v>21.36906780582726</v>
+      </c>
+      <c r="O19">
+        <v>4.06012288310718</v>
+      </c>
+      <c r="P19">
+        <v>17.30894492272008</v>
+      </c>
+      <c r="Q19">
+        <v>111.9089449227201</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.06718341709712873</v>
+      </c>
+      <c r="T19">
+        <v>1.044581127083728</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.19</v>
+      </c>
+      <c r="W19">
+        <v>0.013122</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>43.48896382737421</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.05793686721597371</v>
+      </c>
+      <c r="C20">
+        <v>152.4121689937615</v>
+      </c>
+      <c r="D20">
+        <v>97.7835542338095</v>
+      </c>
+      <c r="E20">
+        <v>25.0525783508924</v>
+      </c>
+      <c r="F20">
+        <v>32.87138524004801</v>
+      </c>
+      <c r="G20">
+        <v>87.5</v>
+      </c>
+      <c r="H20">
+        <v>174.8</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>116.472</v>
+      </c>
+      <c r="K20">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L20">
+        <v>21.872</v>
+      </c>
+      <c r="M20">
+        <v>0.5325164408887778</v>
+      </c>
+      <c r="N20">
+        <v>21.33948355911122</v>
+      </c>
+      <c r="O20">
+        <v>4.054501876231132</v>
+      </c>
+      <c r="P20">
+        <v>17.28498168288009</v>
+      </c>
+      <c r="Q20">
+        <v>111.8849816828801</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06777427709265087</v>
+      </c>
+      <c r="T20">
+        <v>1.055243959912611</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.19</v>
+      </c>
+      <c r="W20">
+        <v>0.013122</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>41.07291028140898</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.05788075824133056</v>
+      </c>
+      <c r="C21">
+        <v>150.6989173046968</v>
+      </c>
+      <c r="D21">
+        <v>97.8964906136364</v>
+      </c>
+      <c r="E21">
+        <v>26.87876641978396</v>
+      </c>
+      <c r="F21">
+        <v>34.69757330893957</v>
+      </c>
+      <c r="G21">
+        <v>87.5</v>
+      </c>
+      <c r="H21">
+        <v>174.8</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>116.472</v>
+      </c>
+      <c r="K21">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L21">
+        <v>21.872</v>
+      </c>
+      <c r="M21">
+        <v>0.562100687604821</v>
+      </c>
+      <c r="N21">
+        <v>21.30989931239518</v>
+      </c>
+      <c r="O21">
+        <v>4.048880869355084</v>
+      </c>
+      <c r="P21">
+        <v>17.26101844304009</v>
+      </c>
+      <c r="Q21">
+        <v>111.8610184430401</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.06837972622386489</v>
+      </c>
+      <c r="T21">
+        <v>1.066170072564429</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.19</v>
+      </c>
+      <c r="W21">
+        <v>0.013122</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>38.91117816133482</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.05782464926668742</v>
+      </c>
+      <c r="C22">
+        <v>148.9859267919443</v>
+      </c>
+      <c r="D22">
+        <v>98.00968816977543</v>
+      </c>
+      <c r="E22">
+        <v>28.70495448867552</v>
+      </c>
+      <c r="F22">
+        <v>36.52376137783113</v>
+      </c>
+      <c r="G22">
+        <v>87.5</v>
+      </c>
+      <c r="H22">
+        <v>174.8</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>116.472</v>
+      </c>
+      <c r="K22">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L22">
+        <v>21.872</v>
+      </c>
+      <c r="M22">
+        <v>0.5916849343208642</v>
+      </c>
+      <c r="N22">
+        <v>21.28031506567914</v>
+      </c>
+      <c r="O22">
+        <v>4.043259862479036</v>
+      </c>
+      <c r="P22">
+        <v>17.2370552032001</v>
+      </c>
+      <c r="Q22">
+        <v>111.8370552032001</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06900031158335927</v>
+      </c>
+      <c r="T22">
+        <v>1.077369338032543</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.19</v>
+      </c>
+      <c r="W22">
+        <v>0.013122</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>36.96561925326809</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.05776854029204426</v>
+      </c>
+      <c r="C23">
+        <v>147.2731983625461</v>
+      </c>
+      <c r="D23">
+        <v>98.12314780926873</v>
+      </c>
+      <c r="E23">
+        <v>30.53114255756707</v>
+      </c>
+      <c r="F23">
+        <v>38.34994944672268</v>
+      </c>
+      <c r="G23">
+        <v>87.5</v>
+      </c>
+      <c r="H23">
+        <v>174.8</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>116.472</v>
+      </c>
+      <c r="K23">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L23">
+        <v>21.872</v>
+      </c>
+      <c r="M23">
+        <v>0.6212691810369074</v>
+      </c>
+      <c r="N23">
+        <v>21.25073081896309</v>
+      </c>
+      <c r="O23">
+        <v>4.037638855602988</v>
+      </c>
+      <c r="P23">
+        <v>17.2130919633601</v>
+      </c>
+      <c r="Q23">
+        <v>111.8130919633601</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.06963660796461299</v>
+      </c>
+      <c r="T23">
+        <v>1.08885212920871</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.19</v>
+      </c>
+      <c r="W23">
+        <v>0.013122</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>35.20535166977913</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.05771243131740113</v>
+      </c>
+      <c r="C24">
+        <v>145.560732927749</v>
+      </c>
+      <c r="D24">
+        <v>98.23687044336323</v>
+      </c>
+      <c r="E24">
+        <v>32.35733062645863</v>
+      </c>
+      <c r="F24">
+        <v>40.17613751561424</v>
+      </c>
+      <c r="G24">
+        <v>87.5</v>
+      </c>
+      <c r="H24">
+        <v>174.8</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>116.472</v>
+      </c>
+      <c r="K24">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L24">
+        <v>21.872</v>
+      </c>
+      <c r="M24">
+        <v>0.6508534277529506</v>
+      </c>
+      <c r="N24">
+        <v>21.22114657224705</v>
+      </c>
+      <c r="O24">
+        <v>4.03201784872694</v>
+      </c>
+      <c r="P24">
+        <v>17.18912872352011</v>
+      </c>
+      <c r="Q24">
+        <v>111.7891287235201</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.07028921963769376</v>
+      </c>
+      <c r="T24">
+        <v>1.100629350927856</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.19</v>
+      </c>
+      <c r="W24">
+        <v>0.013122</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>33.6051084120619</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.05765632234275798</v>
+      </c>
+      <c r="C25">
+        <v>143.8485314030297</v>
+      </c>
+      <c r="D25">
+        <v>98.35085698753547</v>
+      </c>
+      <c r="E25">
+        <v>34.18351869535019</v>
+      </c>
+      <c r="F25">
+        <v>42.0023255845058</v>
+      </c>
+      <c r="G25">
+        <v>87.5</v>
+      </c>
+      <c r="H25">
+        <v>174.8</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>116.472</v>
+      </c>
+      <c r="K25">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L25">
+        <v>21.872</v>
+      </c>
+      <c r="M25">
+        <v>0.6804376744689938</v>
+      </c>
+      <c r="N25">
+        <v>21.19156232553101</v>
+      </c>
+      <c r="O25">
+        <v>4.026396841850891</v>
+      </c>
+      <c r="P25">
+        <v>17.16516548368011</v>
+      </c>
+      <c r="Q25">
+        <v>111.7651654836801</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.07095878226332204</v>
+      </c>
+      <c r="T25">
+        <v>1.112712474509837</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.19</v>
+      </c>
+      <c r="W25">
+        <v>0.013122</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>32.14401674197225</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.05760021336811483</v>
+      </c>
+      <c r="C26">
+        <v>142.1365947081184</v>
+      </c>
+      <c r="D26">
+        <v>98.46510836151572</v>
+      </c>
+      <c r="E26">
+        <v>36.00970676424173</v>
+      </c>
+      <c r="F26">
+        <v>43.82851365339734</v>
+      </c>
+      <c r="G26">
+        <v>87.5</v>
+      </c>
+      <c r="H26">
+        <v>174.8</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>116.472</v>
+      </c>
+      <c r="K26">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L26">
+        <v>21.872</v>
+      </c>
+      <c r="M26">
+        <v>0.7100219211850369</v>
+      </c>
+      <c r="N26">
+        <v>21.16197807881496</v>
+      </c>
+      <c r="O26">
+        <v>4.020775834974843</v>
+      </c>
+      <c r="P26">
+        <v>17.14120224384012</v>
+      </c>
+      <c r="Q26">
+        <v>111.7412022438401</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.07164596495804583</v>
+      </c>
+      <c r="T26">
+        <v>1.125113575028186</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.19</v>
+      </c>
+      <c r="W26">
+        <v>0.013122</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>30.80468271105674</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.05754410439347169</v>
+      </c>
+      <c r="C27">
+        <v>140.424923767024</v>
+      </c>
+      <c r="D27">
+        <v>98.57962548931293</v>
+      </c>
+      <c r="E27">
+        <v>37.8358948331333</v>
+      </c>
+      <c r="F27">
+        <v>45.65470172228891</v>
+      </c>
+      <c r="G27">
+        <v>87.5</v>
+      </c>
+      <c r="H27">
+        <v>174.8</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>116.472</v>
+      </c>
+      <c r="K27">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L27">
+        <v>21.872</v>
+      </c>
+      <c r="M27">
+        <v>0.7396061679010802</v>
+      </c>
+      <c r="N27">
+        <v>21.13239383209892</v>
+      </c>
+      <c r="O27">
+        <v>4.015154828098795</v>
+      </c>
+      <c r="P27">
+        <v>17.11723900400013</v>
+      </c>
+      <c r="Q27">
+        <v>111.7172390040001</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.07235147252462892</v>
+      </c>
+      <c r="T27">
+        <v>1.137845371560357</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.19</v>
+      </c>
+      <c r="W27">
+        <v>0.013122</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>29.57249540261447</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.05748799541882854</v>
+      </c>
+      <c r="C28">
+        <v>138.7135195080593</v>
+      </c>
+      <c r="D28">
+        <v>98.69440929923979</v>
+      </c>
+      <c r="E28">
+        <v>39.66208290202486</v>
+      </c>
+      <c r="F28">
+        <v>47.48088979118047</v>
+      </c>
+      <c r="G28">
+        <v>87.5</v>
+      </c>
+      <c r="H28">
+        <v>174.8</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>116.472</v>
+      </c>
+      <c r="K28">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L28">
+        <v>21.872</v>
+      </c>
+      <c r="M28">
+        <v>0.7691904146171236</v>
+      </c>
+      <c r="N28">
+        <v>21.10280958538288</v>
+      </c>
+      <c r="O28">
+        <v>4.009533821222746</v>
+      </c>
+      <c r="P28">
+        <v>17.09327576416013</v>
+      </c>
+      <c r="Q28">
+        <v>111.6932757641601</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.07307604786328181</v>
+      </c>
+      <c r="T28">
+        <v>1.150921270701506</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.19</v>
+      </c>
+      <c r="W28">
+        <v>0.013122</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>28.43509173328314</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.05743188644418539</v>
+      </c>
+      <c r="C29">
+        <v>137.0023828638655</v>
+      </c>
+      <c r="D29">
+        <v>98.80946072393751</v>
+      </c>
+      <c r="E29">
+        <v>41.48827097091641</v>
+      </c>
+      <c r="F29">
+        <v>49.30707786007202</v>
+      </c>
+      <c r="G29">
+        <v>87.5</v>
+      </c>
+      <c r="H29">
+        <v>174.8</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>116.472</v>
+      </c>
+      <c r="K29">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L29">
+        <v>21.872</v>
+      </c>
+      <c r="M29">
+        <v>0.7987746613331667</v>
+      </c>
+      <c r="N29">
+        <v>21.07322533866683</v>
+      </c>
+      <c r="O29">
+        <v>4.003912814346698</v>
+      </c>
+      <c r="P29">
+        <v>17.06931252432014</v>
+      </c>
+      <c r="Q29">
+        <v>111.6693125243201</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.07382047458107588</v>
+      </c>
+      <c r="T29">
+        <v>1.164355413654741</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.19</v>
+      </c>
+      <c r="W29">
+        <v>0.013122</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>27.38194018760599</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.05737577746954226</v>
+      </c>
+      <c r="C30">
+        <v>135.2915147714376</v>
+      </c>
+      <c r="D30">
+        <v>98.92478070040119</v>
+      </c>
+      <c r="E30">
+        <v>43.31445903980797</v>
+      </c>
+      <c r="F30">
+        <v>51.13326592896358</v>
+      </c>
+      <c r="G30">
+        <v>87.5</v>
+      </c>
+      <c r="H30">
+        <v>174.8</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>116.472</v>
+      </c>
+      <c r="K30">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L30">
+        <v>21.872</v>
+      </c>
+      <c r="M30">
+        <v>0.82835890804921</v>
+      </c>
+      <c r="N30">
+        <v>21.04364109195079</v>
+      </c>
+      <c r="O30">
+        <v>3.99829180747065</v>
+      </c>
+      <c r="P30">
+        <v>17.04534928448014</v>
+      </c>
+      <c r="Q30">
+        <v>111.6453492844801</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.07458557981880869</v>
+      </c>
+      <c r="T30">
+        <v>1.178162727245566</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.19</v>
+      </c>
+      <c r="W30">
+        <v>0.013122</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>26.40401375233434</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.05731966849489911</v>
+      </c>
+      <c r="C31">
+        <v>133.5809161721503</v>
+      </c>
+      <c r="D31">
+        <v>99.04037017000545</v>
+      </c>
+      <c r="E31">
+        <v>45.14064710869952</v>
+      </c>
+      <c r="F31">
+        <v>52.95945399785513</v>
+      </c>
+      <c r="G31">
+        <v>87.5</v>
+      </c>
+      <c r="H31">
+        <v>174.8</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>116.472</v>
+      </c>
+      <c r="K31">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L31">
+        <v>21.872</v>
+      </c>
+      <c r="M31">
+        <v>0.8579431547652531</v>
+      </c>
+      <c r="N31">
+        <v>21.01405684523475</v>
+      </c>
+      <c r="O31">
+        <v>3.992670800594602</v>
+      </c>
+      <c r="P31">
+        <v>17.02138604464015</v>
+      </c>
+      <c r="Q31">
+        <v>111.6213860446402</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.07537223731675931</v>
+      </c>
+      <c r="T31">
+        <v>1.192358979247401</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.19</v>
+      </c>
+      <c r="W31">
+        <v>0.013122</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>25.49353051949523</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.05726355952025595</v>
+      </c>
+      <c r="C32">
+        <v>131.8705880117831</v>
+      </c>
+      <c r="D32">
+        <v>99.15623007852976</v>
+      </c>
+      <c r="E32">
+        <v>46.96683517759107</v>
+      </c>
+      <c r="F32">
+        <v>54.78564206674668</v>
+      </c>
+      <c r="G32">
+        <v>87.5</v>
+      </c>
+      <c r="H32">
+        <v>174.8</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>116.472</v>
+      </c>
+      <c r="K32">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L32">
+        <v>21.872</v>
+      </c>
+      <c r="M32">
+        <v>0.8875274014812962</v>
+      </c>
+      <c r="N32">
+        <v>20.9844725985187</v>
+      </c>
+      <c r="O32">
+        <v>3.987049793718554</v>
+      </c>
+      <c r="P32">
+        <v>16.99742280480015</v>
+      </c>
+      <c r="Q32">
+        <v>111.5974228048002</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.0761813707432228</v>
+      </c>
+      <c r="T32">
+        <v>1.206960838449288</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.19</v>
+      </c>
+      <c r="W32">
+        <v>0.013122</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>24.64374616884539</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.05720745054561281</v>
+      </c>
+      <c r="C33">
+        <v>130.1605312405461</v>
+      </c>
+      <c r="D33">
+        <v>99.27236137618436</v>
+      </c>
+      <c r="E33">
+        <v>48.79302324648263</v>
+      </c>
+      <c r="F33">
+        <v>56.61183013563824</v>
+      </c>
+      <c r="G33">
+        <v>87.5</v>
+      </c>
+      <c r="H33">
+        <v>174.8</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>116.472</v>
+      </c>
+      <c r="K33">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L33">
+        <v>21.872</v>
+      </c>
+      <c r="M33">
+        <v>0.9171116481973395</v>
+      </c>
+      <c r="N33">
+        <v>20.95488835180266</v>
+      </c>
+      <c r="O33">
+        <v>3.981428786842506</v>
+      </c>
+      <c r="P33">
+        <v>16.97345956496016</v>
+      </c>
+      <c r="Q33">
+        <v>111.5734595649602</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.07701395731248234</v>
+      </c>
+      <c r="T33">
+        <v>1.221985939946881</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.19</v>
+      </c>
+      <c r="W33">
+        <v>0.013122</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>23.84878661501167</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.05715134157096968</v>
+      </c>
+      <c r="C34">
+        <v>128.4507468131065</v>
+      </c>
+      <c r="D34">
+        <v>99.38876501763629</v>
+      </c>
+      <c r="E34">
+        <v>50.61921131537419</v>
+      </c>
+      <c r="F34">
+        <v>58.4380182045298</v>
+      </c>
+      <c r="G34">
+        <v>87.5</v>
+      </c>
+      <c r="H34">
+        <v>174.8</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>116.472</v>
+      </c>
+      <c r="K34">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L34">
+        <v>21.872</v>
+      </c>
+      <c r="M34">
+        <v>0.9466958949133827</v>
+      </c>
+      <c r="N34">
+        <v>20.92530410508662</v>
+      </c>
+      <c r="O34">
+        <v>3.975807779966457</v>
+      </c>
+      <c r="P34">
+        <v>16.94949632512016</v>
+      </c>
+      <c r="Q34">
+        <v>111.5494963251202</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.07787103172201423</v>
+      </c>
+      <c r="T34">
+        <v>1.237452956194404</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.19</v>
+      </c>
+      <c r="W34">
+        <v>0.013122</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>23.10351203329255</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.05709523259632652</v>
+      </c>
+      <c r="C35">
+        <v>126.7412356886141</v>
+      </c>
+      <c r="D35">
+        <v>99.5054419620355</v>
+      </c>
+      <c r="E35">
+        <v>52.44539938426575</v>
+      </c>
+      <c r="F35">
+        <v>60.26420627342136</v>
+      </c>
+      <c r="G35">
+        <v>87.5</v>
+      </c>
+      <c r="H35">
+        <v>174.8</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>116.472</v>
+      </c>
+      <c r="K35">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L35">
+        <v>21.872</v>
+      </c>
+      <c r="M35">
+        <v>0.976280141629426</v>
+      </c>
+      <c r="N35">
+        <v>20.89571985837057</v>
+      </c>
+      <c r="O35">
+        <v>3.970186773090409</v>
+      </c>
+      <c r="P35">
+        <v>16.92553308528016</v>
+      </c>
+      <c r="Q35">
+        <v>111.5255330852802</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.0787536904422784</v>
+      </c>
+      <c r="T35">
+        <v>1.253381674419465</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.19</v>
+      </c>
+      <c r="W35">
+        <v>0.013122</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>22.40340560804126</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.05703912362168338</v>
+      </c>
+      <c r="C36">
+        <v>125.0319988307282</v>
+      </c>
+      <c r="D36">
+        <v>99.62239317304112</v>
+      </c>
+      <c r="E36">
+        <v>54.27158745315731</v>
+      </c>
+      <c r="F36">
+        <v>62.09039434231292</v>
+      </c>
+      <c r="G36">
+        <v>87.5</v>
+      </c>
+      <c r="H36">
+        <v>174.8</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>116.472</v>
+      </c>
+      <c r="K36">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L36">
+        <v>21.872</v>
+      </c>
+      <c r="M36">
+        <v>1.005864388345469</v>
+      </c>
+      <c r="N36">
+        <v>20.86613561165453</v>
+      </c>
+      <c r="O36">
+        <v>3.964565766214361</v>
+      </c>
+      <c r="P36">
+        <v>16.90156984544017</v>
+      </c>
+      <c r="Q36">
+        <v>111.5015698454402</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.07966309639648998</v>
+      </c>
+      <c r="T36">
+        <v>1.269793081075588</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.19</v>
+      </c>
+      <c r="W36">
+        <v>0.013122</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>21.74448191368711</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.05698301464704022</v>
+      </c>
+      <c r="C37">
+        <v>123.3230372076437</v>
+      </c>
+      <c r="D37">
+        <v>99.73961961884814</v>
+      </c>
+      <c r="E37">
+        <v>56.09777552204886</v>
+      </c>
+      <c r="F37">
+        <v>63.91658241120447</v>
+      </c>
+      <c r="G37">
+        <v>87.5</v>
+      </c>
+      <c r="H37">
+        <v>174.8</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>116.472</v>
+      </c>
+      <c r="K37">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L37">
+        <v>21.872</v>
+      </c>
+      <c r="M37">
+        <v>1.035448635061512</v>
+      </c>
+      <c r="N37">
+        <v>20.83655136493849</v>
+      </c>
+      <c r="O37">
+        <v>3.958944759338312</v>
+      </c>
+      <c r="P37">
+        <v>16.87760660560017</v>
+      </c>
+      <c r="Q37">
+        <v>111.4776066056002</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.08060048407236958</v>
+      </c>
+      <c r="T37">
+        <v>1.286709454090361</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.19</v>
+      </c>
+      <c r="W37">
+        <v>0.013122</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>21.12321100186747</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.05692690567239708</v>
+      </c>
+      <c r="C38">
+        <v>121.6143517921179</v>
+      </c>
+      <c r="D38">
+        <v>99.85712227221396</v>
+      </c>
+      <c r="E38">
+        <v>57.92396359094042</v>
+      </c>
+      <c r="F38">
+        <v>65.74277048009603</v>
+      </c>
+      <c r="G38">
+        <v>87.5</v>
+      </c>
+      <c r="H38">
+        <v>174.8</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>116.472</v>
+      </c>
+      <c r="K38">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L38">
+        <v>21.872</v>
+      </c>
+      <c r="M38">
+        <v>1.065032881777556</v>
+      </c>
+      <c r="N38">
+        <v>20.80696711822245</v>
+      </c>
+      <c r="O38">
+        <v>3.953323752462265</v>
+      </c>
+      <c r="P38">
+        <v>16.85364336576018</v>
+      </c>
+      <c r="Q38">
+        <v>111.4536433657602</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.08156716511312044</v>
+      </c>
+      <c r="T38">
+        <v>1.304154463761846</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.19</v>
+      </c>
+      <c r="W38">
+        <v>0.013122</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>20.53645514070449</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.05687079669775395</v>
+      </c>
+      <c r="C39">
+        <v>119.9059435614979</v>
+      </c>
+      <c r="D39">
+        <v>99.97490211048547</v>
+      </c>
+      <c r="E39">
+        <v>59.75015165983197</v>
+      </c>
+      <c r="F39">
+        <v>67.56895854898758</v>
+      </c>
+      <c r="G39">
+        <v>87.5</v>
+      </c>
+      <c r="H39">
+        <v>174.8</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>116.472</v>
+      </c>
+      <c r="K39">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L39">
+        <v>21.872</v>
+      </c>
+      <c r="M39">
+        <v>1.094617128493599</v>
+      </c>
+      <c r="N39">
+        <v>20.7773828715064</v>
+      </c>
+      <c r="O39">
+        <v>3.947702745586216</v>
+      </c>
+      <c r="P39">
+        <v>16.82968012592018</v>
+      </c>
+      <c r="Q39">
+        <v>111.4296801259202</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.08256453444087927</v>
+      </c>
+      <c r="T39">
+        <v>1.322153283264172</v>
+      </c>
+      <c r="U39">
+        <v>0.0162</v>
+      </c>
+      <c r="V39">
+        <v>0.19</v>
+      </c>
+      <c r="W39">
+        <v>0.013122</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>19.98141581257734</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.0568146877231108</v>
+      </c>
+      <c r="C40">
+        <v>118.1978134977469</v>
+      </c>
+      <c r="D40">
+        <v>100.0929601156261</v>
+      </c>
+      <c r="E40">
+        <v>61.57633972872353</v>
+      </c>
+      <c r="F40">
+        <v>69.39514661787913</v>
+      </c>
+      <c r="G40">
+        <v>87.5</v>
+      </c>
+      <c r="H40">
+        <v>174.8</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>116.472</v>
+      </c>
+      <c r="K40">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L40">
+        <v>21.872</v>
+      </c>
+      <c r="M40">
+        <v>1.124201375209642</v>
+      </c>
+      <c r="N40">
+        <v>20.74779862479036</v>
+      </c>
+      <c r="O40">
+        <v>3.942081738710169</v>
+      </c>
+      <c r="P40">
+        <v>16.80571688608019</v>
+      </c>
+      <c r="Q40">
+        <v>111.4057168860802</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.08359407697275935</v>
+      </c>
+      <c r="T40">
+        <v>1.340732709847218</v>
+      </c>
+      <c r="U40">
+        <v>0.0162</v>
+      </c>
+      <c r="V40">
+        <v>0.19</v>
+      </c>
+      <c r="W40">
+        <v>0.013122</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>19.45558908066741</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.05675857874846765</v>
+      </c>
+      <c r="C41">
+        <v>116.4899625874722</v>
+      </c>
+      <c r="D41">
+        <v>100.2112972742429</v>
+      </c>
+      <c r="E41">
+        <v>63.40252779761508</v>
+      </c>
+      <c r="F41">
+        <v>71.22133468677069</v>
+      </c>
+      <c r="G41">
+        <v>87.5</v>
+      </c>
+      <c r="H41">
+        <v>174.8</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>116.472</v>
+      </c>
+      <c r="K41">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L41">
+        <v>21.872</v>
+      </c>
+      <c r="M41">
+        <v>1.153785621925685</v>
+      </c>
+      <c r="N41">
+        <v>20.71821437807431</v>
+      </c>
+      <c r="O41">
+        <v>3.93646073183412</v>
+      </c>
+      <c r="P41">
+        <v>16.78175364624019</v>
+      </c>
+      <c r="Q41">
+        <v>111.3817536462402</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.08465737499748796</v>
+      </c>
+      <c r="T41">
+        <v>1.359921297957577</v>
+      </c>
+      <c r="U41">
+        <v>0.0162</v>
+      </c>
+      <c r="V41">
+        <v>0.19</v>
+      </c>
+      <c r="W41">
+        <v>0.013122</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>18.95672782218876</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.0567024697738245</v>
+      </c>
+      <c r="C42">
+        <v>114.7823918219521</v>
+      </c>
+      <c r="D42">
+        <v>100.3299145776143</v>
+      </c>
+      <c r="E42">
+        <v>65.22871586650665</v>
+      </c>
+      <c r="F42">
+        <v>73.04752275566226</v>
+      </c>
+      <c r="G42">
+        <v>87.5</v>
+      </c>
+      <c r="H42">
+        <v>174.8</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>116.472</v>
+      </c>
+      <c r="K42">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L42">
+        <v>21.872</v>
+      </c>
+      <c r="M42">
+        <v>1.183369868641728</v>
+      </c>
+      <c r="N42">
+        <v>20.68863013135827</v>
+      </c>
+      <c r="O42">
+        <v>3.930839724958072</v>
+      </c>
+      <c r="P42">
+        <v>16.7577904064002</v>
+      </c>
+      <c r="Q42">
+        <v>111.3577904064002</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.0857561162897075</v>
+      </c>
+      <c r="T42">
+        <v>1.379749505671614</v>
+      </c>
+      <c r="U42">
+        <v>0.0162</v>
+      </c>
+      <c r="V42">
+        <v>0.19</v>
+      </c>
+      <c r="W42">
+        <v>0.013122</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>18.48280962663404</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.05664636079918136</v>
+      </c>
+      <c r="C43">
+        <v>113.075102197164</v>
+      </c>
+      <c r="D43">
+        <v>100.4488130217178</v>
+      </c>
+      <c r="E43">
+        <v>67.0549039353982</v>
+      </c>
+      <c r="F43">
+        <v>74.87371082455381</v>
+      </c>
+      <c r="G43">
+        <v>87.5</v>
+      </c>
+      <c r="H43">
+        <v>174.8</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>116.472</v>
+      </c>
+      <c r="K43">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L43">
+        <v>21.872</v>
+      </c>
+      <c r="M43">
+        <v>1.212954115357772</v>
+      </c>
+      <c r="N43">
+        <v>20.65904588464223</v>
+      </c>
+      <c r="O43">
+        <v>3.925218718082024</v>
+      </c>
+      <c r="P43">
+        <v>16.7338271665602</v>
+      </c>
+      <c r="Q43">
+        <v>111.3338271665602</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.08689210304945993</v>
+      </c>
+      <c r="T43">
+        <v>1.400249856020026</v>
+      </c>
+      <c r="U43">
+        <v>0.0162</v>
+      </c>
+      <c r="V43">
+        <v>0.19</v>
+      </c>
+      <c r="W43">
+        <v>0.013122</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>18.03200939183809</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.05659025182453822</v>
+      </c>
+      <c r="C44">
+        <v>111.3680947138121</v>
+      </c>
+      <c r="D44">
+        <v>100.5679936072575</v>
+      </c>
+      <c r="E44">
+        <v>68.88109200428975</v>
+      </c>
+      <c r="F44">
+        <v>76.69989889344536</v>
+      </c>
+      <c r="G44">
+        <v>87.5</v>
+      </c>
+      <c r="H44">
+        <v>174.8</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>116.472</v>
+      </c>
+      <c r="K44">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L44">
+        <v>21.872</v>
+      </c>
+      <c r="M44">
+        <v>1.242538362073815</v>
+      </c>
+      <c r="N44">
+        <v>20.62946163792618</v>
+      </c>
+      <c r="O44">
+        <v>3.919597711205975</v>
+      </c>
+      <c r="P44">
+        <v>16.70986392672021</v>
+      </c>
+      <c r="Q44">
+        <v>111.3098639267202</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.08806726176644519</v>
+      </c>
+      <c r="T44">
+        <v>1.421457115001141</v>
+      </c>
+      <c r="U44">
+        <v>0.0162</v>
+      </c>
+      <c r="V44">
+        <v>0.19</v>
+      </c>
+      <c r="W44">
+        <v>0.013122</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>17.60267583488956</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.05653414284989507</v>
+      </c>
+      <c r="C45">
+        <v>109.6613703773557</v>
+      </c>
+      <c r="D45">
+        <v>100.6874573396926</v>
+      </c>
+      <c r="E45">
+        <v>70.70728007318131</v>
+      </c>
+      <c r="F45">
+        <v>78.52608696233692</v>
+      </c>
+      <c r="G45">
+        <v>87.5</v>
+      </c>
+      <c r="H45">
+        <v>174.8</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>116.472</v>
+      </c>
+      <c r="K45">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L45">
+        <v>21.872</v>
+      </c>
+      <c r="M45">
+        <v>1.272122608789858</v>
+      </c>
+      <c r="N45">
+        <v>20.59987739121014</v>
+      </c>
+      <c r="O45">
+        <v>3.913976704329927</v>
+      </c>
+      <c r="P45">
+        <v>16.68590068688022</v>
+      </c>
+      <c r="Q45">
+        <v>111.2859006868802</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.08928365412262292</v>
+      </c>
+      <c r="T45">
+        <v>1.443408488332471</v>
+      </c>
+      <c r="U45">
+        <v>0.0162</v>
+      </c>
+      <c r="V45">
+        <v>0.19</v>
+      </c>
+      <c r="W45">
+        <v>0.013122</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>17.19331128058981</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.05647803387525194</v>
+      </c>
+      <c r="C46">
+        <v>107.9549301980369</v>
+      </c>
+      <c r="D46">
+        <v>100.8072052292654</v>
+      </c>
+      <c r="E46">
+        <v>72.53346814207286</v>
+      </c>
+      <c r="F46">
+        <v>80.35227503122847</v>
+      </c>
+      <c r="G46">
+        <v>87.5</v>
+      </c>
+      <c r="H46">
+        <v>174.8</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>116.472</v>
+      </c>
+      <c r="K46">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L46">
+        <v>21.872</v>
+      </c>
+      <c r="M46">
+        <v>1.301706855505901</v>
+      </c>
+      <c r="N46">
+        <v>20.5702931444941</v>
+      </c>
+      <c r="O46">
+        <v>3.908355697453878</v>
+      </c>
+      <c r="P46">
+        <v>16.66193744704022</v>
+      </c>
+      <c r="Q46">
+        <v>111.2619374470402</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.09054348906294987</v>
+      </c>
+      <c r="T46">
+        <v>1.466143839282777</v>
+      </c>
+      <c r="U46">
+        <v>0.0162</v>
+      </c>
+      <c r="V46">
+        <v>0.19</v>
+      </c>
+      <c r="W46">
+        <v>0.013122</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>16.80255420603095</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.05642192490060877</v>
+      </c>
+      <c r="C47">
+        <v>106.2487751909099</v>
+      </c>
+      <c r="D47">
+        <v>100.9272382910299</v>
+      </c>
+      <c r="E47">
+        <v>74.35965621096442</v>
+      </c>
+      <c r="F47">
+        <v>82.17846310012003</v>
+      </c>
+      <c r="G47">
+        <v>87.5</v>
+      </c>
+      <c r="H47">
+        <v>174.8</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>116.472</v>
+      </c>
+      <c r="K47">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L47">
+        <v>21.872</v>
+      </c>
+      <c r="M47">
+        <v>1.331291102221944</v>
+      </c>
+      <c r="N47">
+        <v>20.54070889777806</v>
+      </c>
+      <c r="O47">
+        <v>3.902734690577831</v>
+      </c>
+      <c r="P47">
+        <v>16.63797420720023</v>
+      </c>
+      <c r="Q47">
+        <v>111.2379742072002</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.09184913618292503</v>
+      </c>
+      <c r="T47">
+        <v>1.48970593026764</v>
+      </c>
+      <c r="U47">
+        <v>0.0162</v>
+      </c>
+      <c r="V47">
+        <v>0.19</v>
+      </c>
+      <c r="W47">
+        <v>0.013122</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>16.42916411256359</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.05636581592596562</v>
+      </c>
+      <c r="C48">
+        <v>104.5429063758687</v>
+      </c>
+      <c r="D48">
+        <v>101.0475575448803</v>
+      </c>
+      <c r="E48">
+        <v>76.18584427985598</v>
+      </c>
+      <c r="F48">
+        <v>84.00465116901159</v>
+      </c>
+      <c r="G48">
+        <v>87.5</v>
+      </c>
+      <c r="H48">
+        <v>174.8</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>116.472</v>
+      </c>
+      <c r="K48">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L48">
+        <v>21.872</v>
+      </c>
+      <c r="M48">
+        <v>1.360875348937988</v>
+      </c>
+      <c r="N48">
+        <v>20.51112465106201</v>
+      </c>
+      <c r="O48">
+        <v>3.897113683701782</v>
+      </c>
+      <c r="P48">
+        <v>16.61401096736023</v>
+      </c>
+      <c r="Q48">
+        <v>111.2140109673602</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.09320314060364004</v>
+      </c>
+      <c r="T48">
+        <v>1.514140691288979</v>
+      </c>
+      <c r="U48">
+        <v>0.0162</v>
+      </c>
+      <c r="V48">
+        <v>0.19</v>
+      </c>
+      <c r="W48">
+        <v>0.013122</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>16.07200837098613</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.05630970695132249</v>
+      </c>
+      <c r="C49">
+        <v>102.8373247776771</v>
+      </c>
+      <c r="D49">
+        <v>101.1681640155803</v>
+      </c>
+      <c r="E49">
+        <v>78.01203234874754</v>
+      </c>
+      <c r="F49">
+        <v>85.83083923790315</v>
+      </c>
+      <c r="G49">
+        <v>87.5</v>
+      </c>
+      <c r="H49">
+        <v>174.8</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>116.472</v>
+      </c>
+      <c r="K49">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L49">
+        <v>21.872</v>
+      </c>
+      <c r="M49">
+        <v>1.390459595654031</v>
+      </c>
+      <c r="N49">
+        <v>20.48154040434597</v>
+      </c>
+      <c r="O49">
+        <v>3.891492676825735</v>
+      </c>
+      <c r="P49">
+        <v>16.59004772752024</v>
+      </c>
+      <c r="Q49">
+        <v>111.1900477275202</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.09460823953079714</v>
+      </c>
+      <c r="T49">
+        <v>1.539497518763953</v>
+      </c>
+      <c r="U49">
+        <v>0.0162</v>
+      </c>
+      <c r="V49">
+        <v>0.19</v>
+      </c>
+      <c r="W49">
+        <v>0.013122</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>15.73005074607153</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.05625359797667934</v>
+      </c>
+      <c r="C50">
+        <v>101.1320314259969</v>
+      </c>
+      <c r="D50">
+        <v>101.2890587327916</v>
+      </c>
+      <c r="E50">
+        <v>79.83822041763908</v>
+      </c>
+      <c r="F50">
+        <v>87.65702730679469</v>
+      </c>
+      <c r="G50">
+        <v>87.5</v>
+      </c>
+      <c r="H50">
+        <v>174.8</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>116.472</v>
+      </c>
+      <c r="K50">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L50">
+        <v>21.872</v>
+      </c>
+      <c r="M50">
+        <v>1.420043842370074</v>
+      </c>
+      <c r="N50">
+        <v>20.45195615762993</v>
+      </c>
+      <c r="O50">
+        <v>3.885871669949686</v>
+      </c>
+      <c r="P50">
+        <v>16.56608448768024</v>
+      </c>
+      <c r="Q50">
+        <v>111.1660844876803</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.09606738072438334</v>
+      </c>
+      <c r="T50">
+        <v>1.565829608834119</v>
+      </c>
+      <c r="U50">
+        <v>0.0162</v>
+      </c>
+      <c r="V50">
+        <v>0.19</v>
+      </c>
+      <c r="W50">
+        <v>0.013122</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>15.40234135552837</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.05619748900203619</v>
+      </c>
+      <c r="C51">
+        <v>99.42702735541744</v>
+      </c>
+      <c r="D51">
+        <v>101.4102427311037</v>
+      </c>
+      <c r="E51">
+        <v>81.66440848653065</v>
+      </c>
+      <c r="F51">
+        <v>89.48321537568626</v>
+      </c>
+      <c r="G51">
+        <v>87.5</v>
+      </c>
+      <c r="H51">
+        <v>174.8</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>116.472</v>
+      </c>
+      <c r="K51">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L51">
+        <v>21.872</v>
+      </c>
+      <c r="M51">
+        <v>1.449628089086117</v>
+      </c>
+      <c r="N51">
+        <v>20.42237191091388</v>
+      </c>
+      <c r="O51">
+        <v>3.880250663073638</v>
+      </c>
+      <c r="P51">
+        <v>16.54212124784024</v>
+      </c>
+      <c r="Q51">
+        <v>111.1421212478403</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.09758374314124744</v>
+      </c>
+      <c r="T51">
+        <v>1.593194329887429</v>
+      </c>
+      <c r="U51">
+        <v>0.0162</v>
+      </c>
+      <c r="V51">
+        <v>0.19</v>
+      </c>
+      <c r="W51">
+        <v>0.013122</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>15.08800785847677</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.05614138002739304</v>
+      </c>
+      <c r="C52">
+        <v>97.72231360548545</v>
+      </c>
+      <c r="D52">
+        <v>101.5317170500633</v>
+      </c>
+      <c r="E52">
+        <v>83.4905965554222</v>
+      </c>
+      <c r="F52">
+        <v>91.30940344457781</v>
+      </c>
+      <c r="G52">
+        <v>87.5</v>
+      </c>
+      <c r="H52">
+        <v>174.8</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>116.472</v>
+      </c>
+      <c r="K52">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L52">
+        <v>21.872</v>
+      </c>
+      <c r="M52">
+        <v>1.47921233580216</v>
+      </c>
+      <c r="N52">
+        <v>20.39278766419784</v>
+      </c>
+      <c r="O52">
+        <v>3.87462965619759</v>
+      </c>
+      <c r="P52">
+        <v>16.51815800800025</v>
+      </c>
+      <c r="Q52">
+        <v>111.1181580080003</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.09916076005478609</v>
+      </c>
+      <c r="T52">
+        <v>1.621653639782871</v>
+      </c>
+      <c r="U52">
+        <v>0.0162</v>
+      </c>
+      <c r="V52">
+        <v>0.19</v>
+      </c>
+      <c r="W52">
+        <v>0.013122</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>14.78624770130723</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.05608527105274991</v>
+      </c>
+      <c r="C53">
+        <v>96.01789122073441</v>
+      </c>
+      <c r="D53">
+        <v>101.6534827342038</v>
+      </c>
+      <c r="E53">
+        <v>85.31678462431375</v>
+      </c>
+      <c r="F53">
+        <v>93.13559151346936</v>
+      </c>
+      <c r="G53">
+        <v>87.5</v>
+      </c>
+      <c r="H53">
+        <v>174.8</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>116.472</v>
+      </c>
+      <c r="K53">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L53">
+        <v>21.872</v>
+      </c>
+      <c r="M53">
+        <v>1.508796582518204</v>
+      </c>
+      <c r="N53">
+        <v>20.3632034174818</v>
+      </c>
+      <c r="O53">
+        <v>3.869008649321541</v>
+      </c>
+      <c r="P53">
+        <v>16.49419476816026</v>
+      </c>
+      <c r="Q53">
+        <v>111.0941947681603</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1008021450056121</v>
+      </c>
+      <c r="T53">
+        <v>1.651274554163841</v>
+      </c>
+      <c r="U53">
+        <v>0.0162</v>
+      </c>
+      <c r="V53">
+        <v>0.19</v>
+      </c>
+      <c r="W53">
+        <v>0.013122</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>14.49632127579141</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.05602916207810676</v>
+      </c>
+      <c r="C54">
+        <v>94.31376125071453</v>
+      </c>
+      <c r="D54">
+        <v>101.7755408330755</v>
+      </c>
+      <c r="E54">
+        <v>87.14297269320532</v>
+      </c>
+      <c r="F54">
+        <v>94.96177958236093</v>
+      </c>
+      <c r="G54">
+        <v>87.5</v>
+      </c>
+      <c r="H54">
+        <v>174.8</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>116.472</v>
+      </c>
+      <c r="K54">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L54">
+        <v>21.872</v>
+      </c>
+      <c r="M54">
+        <v>1.538380829234247</v>
+      </c>
+      <c r="N54">
+        <v>20.33361917076575</v>
+      </c>
+      <c r="O54">
+        <v>3.863387642445493</v>
+      </c>
+      <c r="P54">
+        <v>16.47023152832026</v>
+      </c>
+      <c r="Q54">
+        <v>111.0702315283203</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1025119209960557</v>
+      </c>
+      <c r="T54">
+        <v>1.682129673310685</v>
+      </c>
+      <c r="U54">
+        <v>0.0162</v>
+      </c>
+      <c r="V54">
+        <v>0.19</v>
+      </c>
+      <c r="W54">
+        <v>0.013122</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>14.21754586664157</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.05597305310346361</v>
+      </c>
+      <c r="C55">
+        <v>92.60992475002307</v>
+      </c>
+      <c r="D55">
+        <v>101.8978924012756</v>
+      </c>
+      <c r="E55">
+        <v>88.96916076209688</v>
+      </c>
+      <c r="F55">
+        <v>96.78796765125249</v>
+      </c>
+      <c r="G55">
+        <v>87.5</v>
+      </c>
+      <c r="H55">
+        <v>174.8</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>116.472</v>
+      </c>
+      <c r="K55">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L55">
+        <v>21.872</v>
+      </c>
+      <c r="M55">
+        <v>1.56796507595029</v>
+      </c>
+      <c r="N55">
+        <v>20.30403492404971</v>
+      </c>
+      <c r="O55">
+        <v>3.857766635569445</v>
+      </c>
+      <c r="P55">
+        <v>16.44626828848027</v>
+      </c>
+      <c r="Q55">
+        <v>111.0462682884803</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1042944534116247</v>
+      </c>
+      <c r="T55">
+        <v>1.714297776251012</v>
+      </c>
+      <c r="U55">
+        <v>0.0162</v>
+      </c>
+      <c r="V55">
+        <v>0.19</v>
+      </c>
+      <c r="W55">
+        <v>0.013122</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>13.94929028425211</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.05661678412882047</v>
+      </c>
+      <c r="C56">
+        <v>89.39744562258043</v>
+      </c>
+      <c r="D56">
+        <v>100.5116013427245</v>
+      </c>
+      <c r="E56">
+        <v>90.79534883098843</v>
+      </c>
+      <c r="F56">
+        <v>98.61415572014404</v>
+      </c>
+      <c r="G56">
+        <v>87.5</v>
+      </c>
+      <c r="H56">
+        <v>174.8</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>116.472</v>
+      </c>
+      <c r="K56">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L56">
+        <v>21.872</v>
+      </c>
+      <c r="M56">
+        <v>1.755331971818564</v>
+      </c>
+      <c r="N56">
+        <v>20.11666802818144</v>
+      </c>
+      <c r="O56">
+        <v>3.822166925354473</v>
+      </c>
+      <c r="P56">
+        <v>16.29450110282696</v>
+      </c>
+      <c r="Q56">
+        <v>110.894501102827</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1061544872365662</v>
+      </c>
+      <c r="T56">
+        <v>1.747864492362657</v>
+      </c>
+      <c r="U56">
+        <v>0.0178</v>
+      </c>
+      <c r="V56">
+        <v>0.19</v>
+      </c>
+      <c r="W56">
+        <v>0.014418</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>12.46032109660722</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.05657363515417732</v>
+      </c>
+      <c r="C57">
+        <v>87.66299944160453</v>
+      </c>
+      <c r="D57">
+        <v>100.6033432306401</v>
+      </c>
+      <c r="E57">
+        <v>92.62153689987998</v>
+      </c>
+      <c r="F57">
+        <v>100.4403437890356</v>
+      </c>
+      <c r="G57">
+        <v>87.5</v>
+      </c>
+      <c r="H57">
+        <v>174.8</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>116.472</v>
+      </c>
+      <c r="K57">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L57">
+        <v>21.872</v>
+      </c>
+      <c r="M57">
+        <v>1.787838119444834</v>
+      </c>
+      <c r="N57">
+        <v>20.08416188055516</v>
+      </c>
+      <c r="O57">
+        <v>3.815990757305481</v>
+      </c>
+      <c r="P57">
+        <v>16.26817112324968</v>
+      </c>
+      <c r="Q57">
+        <v>110.8681711232497</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1080971892315052</v>
+      </c>
+      <c r="T57">
+        <v>1.782923062523709</v>
+      </c>
+      <c r="U57">
+        <v>0.0178</v>
+      </c>
+      <c r="V57">
+        <v>0.19</v>
+      </c>
+      <c r="W57">
+        <v>0.014418</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>12.23376980394163</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.05653048617953418</v>
+      </c>
+      <c r="C58">
+        <v>85.92872088830788</v>
+      </c>
+      <c r="D58">
+        <v>100.6952527462351</v>
+      </c>
+      <c r="E58">
+        <v>94.44772496877155</v>
+      </c>
+      <c r="F58">
+        <v>102.2665318579272</v>
+      </c>
+      <c r="G58">
+        <v>87.5</v>
+      </c>
+      <c r="H58">
+        <v>174.8</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>116.472</v>
+      </c>
+      <c r="K58">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L58">
+        <v>21.872</v>
+      </c>
+      <c r="M58">
+        <v>1.820344267071103</v>
+      </c>
+      <c r="N58">
+        <v>20.0516557329289</v>
+      </c>
+      <c r="O58">
+        <v>3.809814589256491</v>
+      </c>
+      <c r="P58">
+        <v>16.24184114367241</v>
+      </c>
+      <c r="Q58">
+        <v>110.8418411436724</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1101281958625777</v>
+      </c>
+      <c r="T58">
+        <v>1.819575204055718</v>
+      </c>
+      <c r="U58">
+        <v>0.0178</v>
+      </c>
+      <c r="V58">
+        <v>0.19</v>
+      </c>
+      <c r="W58">
+        <v>0.014418</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>12.01530962887125</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.05648733720489103</v>
+      </c>
+      <c r="C59">
+        <v>84.19461042253616</v>
+      </c>
+      <c r="D59">
+        <v>100.7873303493549</v>
+      </c>
+      <c r="E59">
+        <v>96.27391303766311</v>
+      </c>
+      <c r="F59">
+        <v>104.0927199268187</v>
+      </c>
+      <c r="G59">
+        <v>87.5</v>
+      </c>
+      <c r="H59">
+        <v>174.8</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>116.472</v>
+      </c>
+      <c r="K59">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L59">
+        <v>21.872</v>
+      </c>
+      <c r="M59">
+        <v>1.852850414697373</v>
+      </c>
+      <c r="N59">
+        <v>20.01914958530263</v>
+      </c>
+      <c r="O59">
+        <v>3.803638421207499</v>
+      </c>
+      <c r="P59">
+        <v>16.21551116409513</v>
+      </c>
+      <c r="Q59">
+        <v>110.8155111640951</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1122536679183512</v>
+      </c>
+      <c r="T59">
+        <v>1.857932096356657</v>
+      </c>
+      <c r="U59">
+        <v>0.0178</v>
+      </c>
+      <c r="V59">
+        <v>0.19</v>
+      </c>
+      <c r="W59">
+        <v>0.014418</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>11.80451472310158</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.05644418823024788</v>
+      </c>
+      <c r="C60">
+        <v>82.46066850581836</v>
+      </c>
+      <c r="D60">
+        <v>100.8795765015286</v>
+      </c>
+      <c r="E60">
+        <v>98.10010110655465</v>
+      </c>
+      <c r="F60">
+        <v>105.9189079957103</v>
+      </c>
+      <c r="G60">
+        <v>87.5</v>
+      </c>
+      <c r="H60">
+        <v>174.8</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>116.472</v>
+      </c>
+      <c r="K60">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L60">
+        <v>21.872</v>
+      </c>
+      <c r="M60">
+        <v>1.885356562323643</v>
+      </c>
+      <c r="N60">
+        <v>19.98664343767636</v>
+      </c>
+      <c r="O60">
+        <v>3.797462253158508</v>
+      </c>
+      <c r="P60">
+        <v>16.18918118451785</v>
+      </c>
+      <c r="Q60">
+        <v>110.7891811845179</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1144803529291616</v>
+      </c>
+      <c r="T60">
+        <v>1.898115507338593</v>
+      </c>
+      <c r="U60">
+        <v>0.0178</v>
+      </c>
+      <c r="V60">
+        <v>0.19</v>
+      </c>
+      <c r="W60">
+        <v>0.014418</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>11.60098860718603</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.05640103925560474</v>
+      </c>
+      <c r="C61">
+        <v>80.72689560137472</v>
+      </c>
+      <c r="D61">
+        <v>100.9719916659765</v>
+      </c>
+      <c r="E61">
+        <v>99.9262891754462</v>
+      </c>
+      <c r="F61">
+        <v>107.7450960646018</v>
+      </c>
+      <c r="G61">
+        <v>87.5</v>
+      </c>
+      <c r="H61">
+        <v>174.8</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>116.472</v>
+      </c>
+      <c r="K61">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L61">
+        <v>21.872</v>
+      </c>
+      <c r="M61">
+        <v>1.917862709949912</v>
+      </c>
+      <c r="N61">
+        <v>19.95413729005009</v>
+      </c>
+      <c r="O61">
+        <v>3.791286085109517</v>
+      </c>
+      <c r="P61">
+        <v>16.16285120494057</v>
+      </c>
+      <c r="Q61">
+        <v>110.7628512049406</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1168156567209872</v>
+      </c>
+      <c r="T61">
+        <v>1.940259084709892</v>
+      </c>
+      <c r="U61">
+        <v>0.0178</v>
+      </c>
+      <c r="V61">
+        <v>0.19</v>
+      </c>
+      <c r="W61">
+        <v>0.014418</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>11.40436168164051</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.05635789028096159</v>
+      </c>
+      <c r="C62">
+        <v>78.99329217412462</v>
+      </c>
+      <c r="D62">
+        <v>101.064576307618</v>
+      </c>
+      <c r="E62">
+        <v>101.7524772443378</v>
+      </c>
+      <c r="F62">
+        <v>109.5712841334934</v>
+      </c>
+      <c r="G62">
+        <v>87.5</v>
+      </c>
+      <c r="H62">
+        <v>174.8</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>116.472</v>
+      </c>
+      <c r="K62">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L62">
+        <v>21.872</v>
+      </c>
+      <c r="M62">
+        <v>1.950368857576182</v>
+      </c>
+      <c r="N62">
+        <v>19.92163114242382</v>
+      </c>
+      <c r="O62">
+        <v>3.785109917060525</v>
+      </c>
+      <c r="P62">
+        <v>16.13652122536329</v>
+      </c>
+      <c r="Q62">
+        <v>110.7365212253633</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.119267725702404</v>
+      </c>
+      <c r="T62">
+        <v>1.984509840949756</v>
+      </c>
+      <c r="U62">
+        <v>0.0178</v>
+      </c>
+      <c r="V62">
+        <v>0.19</v>
+      </c>
+      <c r="W62">
+        <v>0.014418</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>11.2142889869465</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.05631474130631845</v>
+      </c>
+      <c r="C63">
+        <v>77.2598586906939</v>
+      </c>
+      <c r="D63">
+        <v>101.1573308930788</v>
+      </c>
+      <c r="E63">
+        <v>103.5786653132293</v>
+      </c>
+      <c r="F63">
+        <v>111.3974722023849</v>
+      </c>
+      <c r="G63">
+        <v>87.5</v>
+      </c>
+      <c r="H63">
+        <v>174.8</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>116.472</v>
+      </c>
+      <c r="K63">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L63">
+        <v>21.872</v>
+      </c>
+      <c r="M63">
+        <v>1.982875005202452</v>
+      </c>
+      <c r="N63">
+        <v>19.88912499479755</v>
+      </c>
+      <c r="O63">
+        <v>3.778933749011534</v>
+      </c>
+      <c r="P63">
+        <v>16.11019124578601</v>
+      </c>
+      <c r="Q63">
+        <v>110.710191245786</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1218455418110729</v>
+      </c>
+      <c r="T63">
+        <v>2.031029866740383</v>
+      </c>
+      <c r="U63">
+        <v>0.0178</v>
+      </c>
+      <c r="V63">
+        <v>0.19</v>
+      </c>
+      <c r="W63">
+        <v>0.014418</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>11.0304481838818</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.0562715923316753</v>
+      </c>
+      <c r="C64">
+        <v>75.52659561942329</v>
+      </c>
+      <c r="D64">
+        <v>101.2502558906998</v>
+      </c>
+      <c r="E64">
+        <v>105.4048533821209</v>
+      </c>
+      <c r="F64">
+        <v>113.2236602712765</v>
+      </c>
+      <c r="G64">
+        <v>87.5</v>
+      </c>
+      <c r="H64">
+        <v>174.8</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>116.472</v>
+      </c>
+      <c r="K64">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L64">
+        <v>21.872</v>
+      </c>
+      <c r="M64">
+        <v>2.015381152828721</v>
+      </c>
+      <c r="N64">
+        <v>19.85661884717128</v>
+      </c>
+      <c r="O64">
+        <v>3.772757580962543</v>
+      </c>
+      <c r="P64">
+        <v>16.08386126620874</v>
+      </c>
+      <c r="Q64">
+        <v>110.6838612662087</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1245590324517771</v>
+      </c>
+      <c r="T64">
+        <v>2.079998314941042</v>
+      </c>
+      <c r="U64">
+        <v>0.0178</v>
+      </c>
+      <c r="V64">
+        <v>0.19</v>
+      </c>
+      <c r="W64">
+        <v>0.014418</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>10.85253772930306</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.05622844335703214</v>
+      </c>
+      <c r="C65">
+        <v>73.79350343037595</v>
+      </c>
+      <c r="D65">
+        <v>101.343351770544</v>
+      </c>
+      <c r="E65">
+        <v>107.2310414510124</v>
+      </c>
+      <c r="F65">
+        <v>115.049848340168</v>
+      </c>
+      <c r="G65">
+        <v>87.5</v>
+      </c>
+      <c r="H65">
+        <v>174.8</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>116.472</v>
+      </c>
+      <c r="K65">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L65">
+        <v>21.872</v>
+      </c>
+      <c r="M65">
+        <v>2.047887300454991</v>
+      </c>
+      <c r="N65">
+        <v>19.82411269954501</v>
+      </c>
+      <c r="O65">
+        <v>3.766581412913552</v>
+      </c>
+      <c r="P65">
+        <v>16.05753128663146</v>
+      </c>
+      <c r="Q65">
+        <v>110.6575312866315</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.127419198262249</v>
+      </c>
+      <c r="T65">
+        <v>2.131613706287683</v>
+      </c>
+      <c r="U65">
+        <v>0.0178</v>
+      </c>
+      <c r="V65">
+        <v>0.19</v>
+      </c>
+      <c r="W65">
+        <v>0.014418</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>10.68027522566333</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.05732577438238901</v>
+      </c>
+      <c r="C66">
+        <v>69.651741994025</v>
+      </c>
+      <c r="D66">
+        <v>99.0277784030846</v>
+      </c>
+      <c r="E66">
+        <v>109.057229519904</v>
+      </c>
+      <c r="F66">
+        <v>116.8760364090596</v>
+      </c>
+      <c r="G66">
+        <v>87.5</v>
+      </c>
+      <c r="H66">
+        <v>174.8</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>116.472</v>
+      </c>
+      <c r="K66">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L66">
+        <v>21.872</v>
+      </c>
+      <c r="M66">
+        <v>2.337520728181191</v>
+      </c>
+      <c r="N66">
+        <v>19.53447927181881</v>
+      </c>
+      <c r="O66">
+        <v>3.711551061645574</v>
+      </c>
+      <c r="P66">
+        <v>15.82292821017324</v>
+      </c>
+      <c r="Q66">
+        <v>110.4229282101732</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1304382621733028</v>
+      </c>
+      <c r="T66">
+        <v>2.186096619375804</v>
+      </c>
+      <c r="U66">
+        <v>0.02</v>
+      </c>
+      <c r="V66">
+        <v>0.19</v>
+      </c>
+      <c r="W66">
+        <v>0.0162</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>9.356922373483487</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.05730044540774586</v>
+      </c>
+      <c r="C67">
+        <v>67.87780910874334</v>
+      </c>
+      <c r="D67">
+        <v>99.0800335866945</v>
+      </c>
+      <c r="E67">
+        <v>110.8834175887956</v>
+      </c>
+      <c r="F67">
+        <v>118.7022244779512</v>
+      </c>
+      <c r="G67">
+        <v>87.5</v>
+      </c>
+      <c r="H67">
+        <v>174.8</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>116.472</v>
+      </c>
+      <c r="K67">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L67">
+        <v>21.872</v>
+      </c>
+      <c r="M67">
+        <v>2.374044489559023</v>
+      </c>
+      <c r="N67">
+        <v>19.49795551044098</v>
+      </c>
+      <c r="O67">
+        <v>3.704611546983786</v>
+      </c>
+      <c r="P67">
+        <v>15.79334396345719</v>
+      </c>
+      <c r="Q67">
+        <v>110.3933439634572</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.133629844022131</v>
+      </c>
+      <c r="T67">
+        <v>2.243692841783246</v>
+      </c>
+      <c r="U67">
+        <v>0.02</v>
+      </c>
+      <c r="V67">
+        <v>0.19</v>
+      </c>
+      <c r="W67">
+        <v>0.0162</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>9.21296972158374</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.05727511643310271</v>
+      </c>
+      <c r="C68">
+        <v>66.10393140082526</v>
+      </c>
+      <c r="D68">
+        <v>99.13234394766798</v>
+      </c>
+      <c r="E68">
+        <v>112.7096056576871</v>
+      </c>
+      <c r="F68">
+        <v>120.5284125468427</v>
+      </c>
+      <c r="G68">
+        <v>87.5</v>
+      </c>
+      <c r="H68">
+        <v>174.8</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>116.472</v>
+      </c>
+      <c r="K68">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L68">
+        <v>21.872</v>
+      </c>
+      <c r="M68">
+        <v>2.410568250936854</v>
+      </c>
+      <c r="N68">
+        <v>19.46143174906314</v>
+      </c>
+      <c r="O68">
+        <v>3.697672032321997</v>
+      </c>
+      <c r="P68">
+        <v>15.76375971674115</v>
+      </c>
+      <c r="Q68">
+        <v>110.3637597167412</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1370091659797139</v>
+      </c>
+      <c r="T68">
+        <v>2.304677077273479</v>
+      </c>
+      <c r="U68">
+        <v>0.02</v>
+      </c>
+      <c r="V68">
+        <v>0.19</v>
+      </c>
+      <c r="W68">
+        <v>0.0162</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>9.073379271256712</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.05724978745845957</v>
+      </c>
+      <c r="C69">
+        <v>64.33010895771132</v>
+      </c>
+      <c r="D69">
+        <v>99.18470957344559</v>
+      </c>
+      <c r="E69">
+        <v>114.5357937265787</v>
+      </c>
+      <c r="F69">
+        <v>122.3546006157343</v>
+      </c>
+      <c r="G69">
+        <v>87.5</v>
+      </c>
+      <c r="H69">
+        <v>174.8</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>116.472</v>
+      </c>
+      <c r="K69">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L69">
+        <v>21.872</v>
+      </c>
+      <c r="M69">
+        <v>2.447092012314685</v>
+      </c>
+      <c r="N69">
+        <v>19.42490798768532</v>
+      </c>
+      <c r="O69">
+        <v>3.69073251766021</v>
+      </c>
+      <c r="P69">
+        <v>15.73417547002511</v>
+      </c>
+      <c r="Q69">
+        <v>110.3341754700251</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1405932953286654</v>
+      </c>
+      <c r="T69">
+        <v>2.369357327035847</v>
+      </c>
+      <c r="U69">
+        <v>0.02</v>
+      </c>
+      <c r="V69">
+        <v>0.19</v>
+      </c>
+      <c r="W69">
+        <v>0.0162</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>8.937955700043926</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.05722445848381642</v>
+      </c>
+      <c r="C70">
+        <v>62.55634186702699</v>
+      </c>
+      <c r="D70">
+        <v>99.23713055165283</v>
+      </c>
+      <c r="E70">
+        <v>116.3619817954702</v>
+      </c>
+      <c r="F70">
+        <v>124.1807886846258</v>
+      </c>
+      <c r="G70">
+        <v>87.5</v>
+      </c>
+      <c r="H70">
+        <v>174.8</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>116.472</v>
+      </c>
+      <c r="K70">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L70">
+        <v>21.872</v>
+      </c>
+      <c r="M70">
+        <v>2.483615773692516</v>
+      </c>
+      <c r="N70">
+        <v>19.38838422630748</v>
+      </c>
+      <c r="O70">
+        <v>3.683793002998422</v>
+      </c>
+      <c r="P70">
+        <v>15.70459122330906</v>
+      </c>
+      <c r="Q70">
+        <v>110.3045912233091</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1444014327619264</v>
+      </c>
+      <c r="T70">
+        <v>2.438080092408363</v>
+      </c>
+      <c r="U70">
+        <v>0.02</v>
+      </c>
+      <c r="V70">
+        <v>0.19</v>
+      </c>
+      <c r="W70">
+        <v>0.0162</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>8.80651517504328</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.05719912950917328</v>
+      </c>
+      <c r="C71">
+        <v>60.78263021658307</v>
+      </c>
+      <c r="D71">
+        <v>99.28960697010046</v>
+      </c>
+      <c r="E71">
+        <v>118.1881698643618</v>
+      </c>
+      <c r="F71">
+        <v>126.0069767535174</v>
+      </c>
+      <c r="G71">
+        <v>87.5</v>
+      </c>
+      <c r="H71">
+        <v>174.8</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>116.472</v>
+      </c>
+      <c r="K71">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L71">
+        <v>21.872</v>
+      </c>
+      <c r="M71">
+        <v>2.520139535070347</v>
+      </c>
+      <c r="N71">
+        <v>19.35186046492965</v>
+      </c>
+      <c r="O71">
+        <v>3.676853488336634</v>
+      </c>
+      <c r="P71">
+        <v>15.67500697659302</v>
+      </c>
+      <c r="Q71">
+        <v>110.275006976593</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1484552564812042</v>
+      </c>
+      <c r="T71">
+        <v>2.511236584579107</v>
+      </c>
+      <c r="U71">
+        <v>0.02</v>
+      </c>
+      <c r="V71">
+        <v>0.19</v>
+      </c>
+      <c r="W71">
+        <v>0.0162</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>8.678884520332506</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.05717380053453013</v>
+      </c>
+      <c r="C72">
+        <v>59.00897409437624</v>
+      </c>
+      <c r="D72">
+        <v>99.34213891678517</v>
+      </c>
+      <c r="E72">
+        <v>120.0143579332533</v>
+      </c>
+      <c r="F72">
+        <v>127.8331648224089</v>
+      </c>
+      <c r="G72">
+        <v>87.5</v>
+      </c>
+      <c r="H72">
+        <v>174.8</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>116.472</v>
+      </c>
+      <c r="K72">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L72">
+        <v>21.872</v>
+      </c>
+      <c r="M72">
+        <v>2.556663296448178</v>
+      </c>
+      <c r="N72">
+        <v>19.31533670355182</v>
+      </c>
+      <c r="O72">
+        <v>3.669913973674846</v>
+      </c>
+      <c r="P72">
+        <v>15.64542272987697</v>
+      </c>
+      <c r="Q72">
+        <v>110.245422729877</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1527793351151005</v>
+      </c>
+      <c r="T72">
+        <v>2.589270176227899</v>
+      </c>
+      <c r="U72">
+        <v>0.02</v>
+      </c>
+      <c r="V72">
+        <v>0.19</v>
+      </c>
+      <c r="W72">
+        <v>0.0162</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>8.554900455756329</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.057148471559887</v>
+      </c>
+      <c r="C73">
+        <v>57.23537358858937</v>
+      </c>
+      <c r="D73">
+        <v>99.39472647988984</v>
+      </c>
+      <c r="E73">
+        <v>121.8405460021449</v>
+      </c>
+      <c r="F73">
+        <v>129.6593528913005</v>
+      </c>
+      <c r="G73">
+        <v>87.5</v>
+      </c>
+      <c r="H73">
+        <v>174.8</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>116.472</v>
+      </c>
+      <c r="K73">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L73">
+        <v>21.872</v>
+      </c>
+      <c r="M73">
+        <v>2.593187057826009</v>
+      </c>
+      <c r="N73">
+        <v>19.27881294217399</v>
+      </c>
+      <c r="O73">
+        <v>3.662974459013058</v>
+      </c>
+      <c r="P73">
+        <v>15.61583848316093</v>
+      </c>
+      <c r="Q73">
+        <v>110.2158384831609</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1574016260685758</v>
+      </c>
+      <c r="T73">
+        <v>2.672685394886953</v>
+      </c>
+      <c r="U73">
+        <v>0.02</v>
+      </c>
+      <c r="V73">
+        <v>0.19</v>
+      </c>
+      <c r="W73">
+        <v>0.0162</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>8.434408900041452</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.05712314258524384</v>
+      </c>
+      <c r="C74">
+        <v>55.46182878759231</v>
+      </c>
+      <c r="D74">
+        <v>99.44736974778435</v>
+      </c>
+      <c r="E74">
+        <v>123.6667340710364</v>
+      </c>
+      <c r="F74">
+        <v>131.4855409601921</v>
+      </c>
+      <c r="G74">
+        <v>87.5</v>
+      </c>
+      <c r="H74">
+        <v>174.8</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>116.472</v>
+      </c>
+      <c r="K74">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L74">
+        <v>21.872</v>
+      </c>
+      <c r="M74">
+        <v>2.629710819203841</v>
+      </c>
+      <c r="N74">
+        <v>19.24228918079616</v>
+      </c>
+      <c r="O74">
+        <v>3.656034944351271</v>
+      </c>
+      <c r="P74">
+        <v>15.58625423644489</v>
+      </c>
+      <c r="Q74">
+        <v>110.1862542364449</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1623540806615851</v>
+      </c>
+      <c r="T74">
+        <v>2.762058843450225</v>
+      </c>
+      <c r="U74">
+        <v>0.02</v>
+      </c>
+      <c r="V74">
+        <v>0.19</v>
+      </c>
+      <c r="W74">
+        <v>0.0162</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>8.317264331985321</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.05709781361060071</v>
+      </c>
+      <c r="C75">
+        <v>53.68833977994211</v>
+      </c>
+      <c r="D75">
+        <v>99.50006880902572</v>
+      </c>
+      <c r="E75">
+        <v>125.492922139928</v>
+      </c>
+      <c r="F75">
+        <v>133.3117290290836</v>
+      </c>
+      <c r="G75">
+        <v>87.5</v>
+      </c>
+      <c r="H75">
+        <v>174.8</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>116.472</v>
+      </c>
+      <c r="K75">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L75">
+        <v>21.872</v>
+      </c>
+      <c r="M75">
+        <v>2.666234580581672</v>
+      </c>
+      <c r="N75">
+        <v>19.20576541941833</v>
+      </c>
+      <c r="O75">
+        <v>3.649095429689482</v>
+      </c>
+      <c r="P75">
+        <v>15.55666998972885</v>
+      </c>
+      <c r="Q75">
+        <v>110.1566699897289</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1676733837429656</v>
+      </c>
+      <c r="T75">
+        <v>2.858052547462629</v>
+      </c>
+      <c r="U75">
+        <v>0.02</v>
+      </c>
+      <c r="V75">
+        <v>0.19</v>
+      </c>
+      <c r="W75">
+        <v>0.0162</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>8.203329204149904</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.05707248463595755</v>
+      </c>
+      <c r="C76">
+        <v>51.91490665438374</v>
+      </c>
+      <c r="D76">
+        <v>99.5528237523589</v>
+      </c>
+      <c r="E76">
+        <v>127.3191102088196</v>
+      </c>
+      <c r="F76">
+        <v>135.1379170979752</v>
+      </c>
+      <c r="G76">
+        <v>87.5</v>
+      </c>
+      <c r="H76">
+        <v>174.8</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>116.472</v>
+      </c>
+      <c r="K76">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L76">
+        <v>21.872</v>
+      </c>
+      <c r="M76">
+        <v>2.702758341959503</v>
+      </c>
+      <c r="N76">
+        <v>19.1692416580405</v>
+      </c>
+      <c r="O76">
+        <v>3.642155915027695</v>
+      </c>
+      <c r="P76">
+        <v>15.5270857430128</v>
+      </c>
+      <c r="Q76">
+        <v>110.1270857430128</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1734018639844521</v>
+      </c>
+      <c r="T76">
+        <v>2.961430382552909</v>
+      </c>
+      <c r="U76">
+        <v>0.02</v>
+      </c>
+      <c r="V76">
+        <v>0.19</v>
+      </c>
+      <c r="W76">
+        <v>0.0162</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>8.092473404093827</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.05704715566131441</v>
+      </c>
+      <c r="C77">
+        <v>50.14152949985038</v>
+      </c>
+      <c r="D77">
+        <v>99.60563466671709</v>
+      </c>
+      <c r="E77">
+        <v>129.1452982777111</v>
+      </c>
+      <c r="F77">
+        <v>136.9641051668667</v>
+      </c>
+      <c r="G77">
+        <v>87.5</v>
+      </c>
+      <c r="H77">
+        <v>174.8</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>116.472</v>
+      </c>
+      <c r="K77">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L77">
+        <v>21.872</v>
+      </c>
+      <c r="M77">
+        <v>2.739282103337334</v>
+      </c>
+      <c r="N77">
+        <v>19.13271789666267</v>
+      </c>
+      <c r="O77">
+        <v>3.635216400365906</v>
+      </c>
+      <c r="P77">
+        <v>15.49750149629676</v>
+      </c>
+      <c r="Q77">
+        <v>110.0975014962968</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1795886226452576</v>
+      </c>
+      <c r="T77">
+        <v>3.073078444450413</v>
+      </c>
+      <c r="U77">
+        <v>0.02</v>
+      </c>
+      <c r="V77">
+        <v>0.19</v>
+      </c>
+      <c r="W77">
+        <v>0.0162</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>7.984573758705907</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.05769898668667126</v>
+      </c>
+      <c r="C78">
+        <v>46.97386617660177</v>
+      </c>
+      <c r="D78">
+        <v>98.26415941236004</v>
+      </c>
+      <c r="E78">
+        <v>130.9714863466027</v>
+      </c>
+      <c r="F78">
+        <v>138.7902932357583</v>
+      </c>
+      <c r="G78">
+        <v>87.5</v>
+      </c>
+      <c r="H78">
+        <v>174.8</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>116.472</v>
+      </c>
+      <c r="K78">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L78">
+        <v>21.872</v>
+      </c>
+      <c r="M78">
+        <v>2.9284751872745</v>
+      </c>
+      <c r="N78">
+        <v>18.9435248127255</v>
+      </c>
+      <c r="O78">
+        <v>3.599269714417845</v>
+      </c>
+      <c r="P78">
+        <v>15.34425509830765</v>
+      </c>
+      <c r="Q78">
+        <v>109.9442550983077</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1862909445277969</v>
+      </c>
+      <c r="T78">
+        <v>3.194030511506042</v>
+      </c>
+      <c r="U78">
+        <v>0.0211</v>
+      </c>
+      <c r="V78">
+        <v>0.19</v>
+      </c>
+      <c r="W78">
+        <v>0.017091</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>7.468733248976589</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.05768256771202811</v>
+      </c>
+      <c r="C79">
+        <v>45.18102476163989</v>
+      </c>
+      <c r="D79">
+        <v>98.2975060662897</v>
+      </c>
+      <c r="E79">
+        <v>132.7976744154942</v>
+      </c>
+      <c r="F79">
+        <v>140.6164813046498</v>
+      </c>
+      <c r="G79">
+        <v>87.5</v>
+      </c>
+      <c r="H79">
+        <v>174.8</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>116.472</v>
+      </c>
+      <c r="K79">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L79">
+        <v>21.872</v>
+      </c>
+      <c r="M79">
+        <v>2.967007755528111</v>
+      </c>
+      <c r="N79">
+        <v>18.90499224447189</v>
+      </c>
+      <c r="O79">
+        <v>3.591948526449659</v>
+      </c>
+      <c r="P79">
+        <v>15.31304371802223</v>
+      </c>
+      <c r="Q79">
+        <v>109.9130437180222</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1935760770088179</v>
+      </c>
+      <c r="T79">
+        <v>3.325500149609986</v>
+      </c>
+      <c r="U79">
+        <v>0.0211</v>
+      </c>
+      <c r="V79">
+        <v>0.19</v>
+      </c>
+      <c r="W79">
+        <v>0.017091</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>7.371736713275595</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.05766614873738497</v>
+      </c>
+      <c r="C80">
+        <v>43.3882059872181</v>
+      </c>
+      <c r="D80">
+        <v>98.33087536075948</v>
+      </c>
+      <c r="E80">
+        <v>134.6238624843858</v>
+      </c>
+      <c r="F80">
+        <v>142.4426693735414</v>
+      </c>
+      <c r="G80">
+        <v>87.5</v>
+      </c>
+      <c r="H80">
+        <v>174.8</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>116.472</v>
+      </c>
+      <c r="K80">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L80">
+        <v>21.872</v>
+      </c>
+      <c r="M80">
+        <v>3.005540323781723</v>
+      </c>
+      <c r="N80">
+        <v>18.86645967621828</v>
+      </c>
+      <c r="O80">
+        <v>3.584627338481472</v>
+      </c>
+      <c r="P80">
+        <v>15.28183233773681</v>
+      </c>
+      <c r="Q80">
+        <v>109.8818323377368</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2015234942608408</v>
+      </c>
+      <c r="T80">
+        <v>3.468921572996106</v>
+      </c>
+      <c r="U80">
+        <v>0.0211</v>
+      </c>
+      <c r="V80">
+        <v>0.19</v>
+      </c>
+      <c r="W80">
+        <v>0.017091</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>7.277227268233601</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.05764972976274183</v>
+      </c>
+      <c r="C81">
+        <v>41.59540987640176</v>
+      </c>
+      <c r="D81">
+        <v>98.36426731883471</v>
+      </c>
+      <c r="E81">
+        <v>136.4500505532774</v>
+      </c>
+      <c r="F81">
+        <v>144.268857442433</v>
+      </c>
+      <c r="G81">
+        <v>87.5</v>
+      </c>
+      <c r="H81">
+        <v>174.8</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>116.472</v>
+      </c>
+      <c r="K81">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L81">
+        <v>21.872</v>
+      </c>
+      <c r="M81">
+        <v>3.044072892035336</v>
+      </c>
+      <c r="N81">
+        <v>18.82792710796467</v>
+      </c>
+      <c r="O81">
+        <v>3.577306150513286</v>
+      </c>
+      <c r="P81">
+        <v>15.25062095745138</v>
+      </c>
+      <c r="Q81">
+        <v>109.8506209574514</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2102278083940087</v>
+      </c>
+      <c r="T81">
+        <v>3.626002179561858</v>
+      </c>
+      <c r="U81">
+        <v>0.0211</v>
+      </c>
+      <c r="V81">
+        <v>0.19</v>
+      </c>
+      <c r="W81">
+        <v>0.017091</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>7.185110467369882</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.05763331078809868</v>
+      </c>
+      <c r="C82">
+        <v>39.8026364522876</v>
+      </c>
+      <c r="D82">
+        <v>98.39768196361211</v>
+      </c>
+      <c r="E82">
+        <v>138.2762386221689</v>
+      </c>
+      <c r="F82">
+        <v>146.0950455113245</v>
+      </c>
+      <c r="G82">
+        <v>87.5</v>
+      </c>
+      <c r="H82">
+        <v>174.8</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>116.472</v>
+      </c>
+      <c r="K82">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L82">
+        <v>21.872</v>
+      </c>
+      <c r="M82">
+        <v>3.082605460288947</v>
+      </c>
+      <c r="N82">
+        <v>18.78939453971105</v>
+      </c>
+      <c r="O82">
+        <v>3.5699849625451</v>
+      </c>
+      <c r="P82">
+        <v>15.21940957716595</v>
+      </c>
+      <c r="Q82">
+        <v>109.819409577166</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2198025539404934</v>
+      </c>
+      <c r="T82">
+        <v>3.798790846784185</v>
+      </c>
+      <c r="U82">
+        <v>0.0211</v>
+      </c>
+      <c r="V82">
+        <v>0.19</v>
+      </c>
+      <c r="W82">
+        <v>0.017091</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>7.095296586527759</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.05761689181345554</v>
+      </c>
+      <c r="C83">
+        <v>38.00988573800365</v>
+      </c>
+      <c r="D83">
+        <v>98.43111931821973</v>
+      </c>
+      <c r="E83">
+        <v>140.1024266910605</v>
+      </c>
+      <c r="F83">
+        <v>147.9212335802161</v>
+      </c>
+      <c r="G83">
+        <v>87.5</v>
+      </c>
+      <c r="H83">
+        <v>174.8</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>116.472</v>
+      </c>
+      <c r="K83">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L83">
+        <v>21.872</v>
+      </c>
+      <c r="M83">
+        <v>3.121138028542559</v>
+      </c>
+      <c r="N83">
+        <v>18.75086197145744</v>
+      </c>
+      <c r="O83">
+        <v>3.562663774576913</v>
+      </c>
+      <c r="P83">
+        <v>15.18819819688053</v>
+      </c>
+      <c r="Q83">
+        <v>109.7881981968805</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2303851674392397</v>
+      </c>
+      <c r="T83">
+        <v>3.989767794766756</v>
+      </c>
+      <c r="U83">
+        <v>0.0211</v>
+      </c>
+      <c r="V83">
+        <v>0.19</v>
+      </c>
+      <c r="W83">
+        <v>0.017091</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>7.007700332373095</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.05760047283881239</v>
+      </c>
+      <c r="C84">
+        <v>36.2171577567095</v>
+      </c>
+      <c r="D84">
+        <v>98.46457940581713</v>
+      </c>
+      <c r="E84">
+        <v>141.928614759952</v>
+      </c>
+      <c r="F84">
+        <v>149.7474216491076</v>
+      </c>
+      <c r="G84">
+        <v>87.5</v>
+      </c>
+      <c r="H84">
+        <v>174.8</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>116.472</v>
+      </c>
+      <c r="K84">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L84">
+        <v>21.872</v>
+      </c>
+      <c r="M84">
+        <v>3.159670596796171</v>
+      </c>
+      <c r="N84">
+        <v>18.71232940320383</v>
+      </c>
+      <c r="O84">
+        <v>3.555342586608727</v>
+      </c>
+      <c r="P84">
+        <v>15.1569868165951</v>
+      </c>
+      <c r="Q84">
+        <v>109.7569868165951</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2421436268822911</v>
+      </c>
+      <c r="T84">
+        <v>4.20196440363628</v>
+      </c>
+      <c r="U84">
+        <v>0.0211</v>
+      </c>
+      <c r="V84">
+        <v>0.19</v>
+      </c>
+      <c r="W84">
+        <v>0.017091</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>6.922240572222204</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.05758405386416924</v>
+      </c>
+      <c r="C85">
+        <v>34.42445253159616</v>
+      </c>
+      <c r="D85">
+        <v>98.49806224959534</v>
+      </c>
+      <c r="E85">
+        <v>143.7548028288436</v>
+      </c>
+      <c r="F85">
+        <v>151.5736097179992</v>
+      </c>
+      <c r="G85">
+        <v>87.5</v>
+      </c>
+      <c r="H85">
+        <v>174.8</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>116.472</v>
+      </c>
+      <c r="K85">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L85">
+        <v>21.872</v>
+      </c>
+      <c r="M85">
+        <v>3.198203165049783</v>
+      </c>
+      <c r="N85">
+        <v>18.67379683495022</v>
+      </c>
+      <c r="O85">
+        <v>3.548021398640541</v>
+      </c>
+      <c r="P85">
+        <v>15.12577543630968</v>
+      </c>
+      <c r="Q85">
+        <v>109.7257754363097</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2552854344951133</v>
+      </c>
+      <c r="T85">
+        <v>4.43912531943163</v>
+      </c>
+      <c r="U85">
+        <v>0.0211</v>
+      </c>
+      <c r="V85">
+        <v>0.19</v>
+      </c>
+      <c r="W85">
+        <v>0.017091</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>6.838840083400251</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.0575676348895261</v>
+      </c>
+      <c r="C86">
+        <v>32.63177008588619</v>
+      </c>
+      <c r="D86">
+        <v>98.53156787277692</v>
+      </c>
+      <c r="E86">
+        <v>145.5809908977351</v>
+      </c>
+      <c r="F86">
+        <v>153.3997977868907</v>
+      </c>
+      <c r="G86">
+        <v>87.5</v>
+      </c>
+      <c r="H86">
+        <v>174.8</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>116.472</v>
+      </c>
+      <c r="K86">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L86">
+        <v>21.872</v>
+      </c>
+      <c r="M86">
+        <v>3.236735733303394</v>
+      </c>
+      <c r="N86">
+        <v>18.63526426669661</v>
+      </c>
+      <c r="O86">
+        <v>3.540700210672355</v>
+      </c>
+      <c r="P86">
+        <v>15.09456405602425</v>
+      </c>
+      <c r="Q86">
+        <v>109.6945640560243</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.270069968059538</v>
+      </c>
+      <c r="T86">
+        <v>4.705931349701397</v>
+      </c>
+      <c r="U86">
+        <v>0.0211</v>
+      </c>
+      <c r="V86">
+        <v>0.19</v>
+      </c>
+      <c r="W86">
+        <v>0.017091</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>6.757425320502628</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.05755121591488295</v>
+      </c>
+      <c r="C87">
+        <v>30.83911044283386</v>
+      </c>
+      <c r="D87">
+        <v>98.56509629861613</v>
+      </c>
+      <c r="E87">
+        <v>147.4071789666267</v>
+      </c>
+      <c r="F87">
+        <v>155.2259858557823</v>
+      </c>
+      <c r="G87">
+        <v>87.5</v>
+      </c>
+      <c r="H87">
+        <v>174.8</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>116.472</v>
+      </c>
+      <c r="K87">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L87">
+        <v>21.872</v>
+      </c>
+      <c r="M87">
+        <v>3.275268301557006</v>
+      </c>
+      <c r="N87">
+        <v>18.59673169844299</v>
+      </c>
+      <c r="O87">
+        <v>3.533379022704169</v>
+      </c>
+      <c r="P87">
+        <v>15.06335267573882</v>
+      </c>
+      <c r="Q87">
+        <v>109.6633526757388</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.2868257727658863</v>
+      </c>
+      <c r="T87">
+        <v>5.008311517340468</v>
+      </c>
+      <c r="U87">
+        <v>0.0211</v>
+      </c>
+      <c r="V87">
+        <v>0.19</v>
+      </c>
+      <c r="W87">
+        <v>0.017091</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>6.677926199084951</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.05753479694023982</v>
+      </c>
+      <c r="C88">
+        <v>29.04647362572487</v>
+      </c>
+      <c r="D88">
+        <v>98.59864755039871</v>
+      </c>
+      <c r="E88">
+        <v>149.2333670355182</v>
+      </c>
+      <c r="F88">
+        <v>157.0521739246738</v>
+      </c>
+      <c r="G88">
+        <v>87.5</v>
+      </c>
+      <c r="H88">
+        <v>174.8</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>116.472</v>
+      </c>
+      <c r="K88">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L88">
+        <v>21.872</v>
+      </c>
+      <c r="M88">
+        <v>3.313800869810618</v>
+      </c>
+      <c r="N88">
+        <v>18.55819913018938</v>
+      </c>
+      <c r="O88">
+        <v>3.526057834735983</v>
+      </c>
+      <c r="P88">
+        <v>15.0321412954534</v>
+      </c>
+      <c r="Q88">
+        <v>109.6321412954534</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3059752638588558</v>
+      </c>
+      <c r="T88">
+        <v>5.353888851785122</v>
+      </c>
+      <c r="U88">
+        <v>0.0211</v>
+      </c>
+      <c r="V88">
+        <v>0.19</v>
+      </c>
+      <c r="W88">
+        <v>0.017091</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>6.600275894444428</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.05751837796559665</v>
+      </c>
+      <c r="C89">
+        <v>27.25385965787703</v>
+      </c>
+      <c r="D89">
+        <v>98.63222165144242</v>
+      </c>
+      <c r="E89">
+        <v>151.0595551044098</v>
+      </c>
+      <c r="F89">
+        <v>158.8783619935654</v>
+      </c>
+      <c r="G89">
+        <v>87.5</v>
+      </c>
+      <c r="H89">
+        <v>174.8</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>116.472</v>
+      </c>
+      <c r="K89">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L89">
+        <v>21.872</v>
+      </c>
+      <c r="M89">
+        <v>3.35233343806423</v>
+      </c>
+      <c r="N89">
+        <v>18.51966656193577</v>
+      </c>
+      <c r="O89">
+        <v>3.518736646767797</v>
+      </c>
+      <c r="P89">
+        <v>15.00092991516797</v>
+      </c>
+      <c r="Q89">
+        <v>109.600929915168</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3280708305045896</v>
+      </c>
+      <c r="T89">
+        <v>5.75263192999049</v>
+      </c>
+      <c r="U89">
+        <v>0.0211</v>
+      </c>
+      <c r="V89">
+        <v>0.19</v>
+      </c>
+      <c r="W89">
+        <v>0.017091</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>6.5244106542784</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.05750195899095352</v>
+      </c>
+      <c r="C90">
+        <v>25.4612685626395</v>
+      </c>
+      <c r="D90">
+        <v>98.66581862509643</v>
+      </c>
+      <c r="E90">
+        <v>152.8857431733013</v>
+      </c>
+      <c r="F90">
+        <v>160.7045500624569</v>
+      </c>
+      <c r="G90">
+        <v>87.5</v>
+      </c>
+      <c r="H90">
+        <v>174.8</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>116.472</v>
+      </c>
+      <c r="K90">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L90">
+        <v>21.872</v>
+      </c>
+      <c r="M90">
+        <v>3.390866006317842</v>
+      </c>
+      <c r="N90">
+        <v>18.48113399368216</v>
+      </c>
+      <c r="O90">
+        <v>3.51141545879961</v>
+      </c>
+      <c r="P90">
+        <v>14.96971853488255</v>
+      </c>
+      <c r="Q90">
+        <v>109.5697185348826</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3538489915912793</v>
+      </c>
+      <c r="T90">
+        <v>6.217832187896755</v>
+      </c>
+      <c r="U90">
+        <v>0.0211</v>
+      </c>
+      <c r="V90">
+        <v>0.19</v>
+      </c>
+      <c r="W90">
+        <v>0.017091</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>6.450269624116145</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.05856689001631037</v>
+      </c>
+      <c r="C91">
+        <v>21.50236435596634</v>
+      </c>
+      <c r="D91">
+        <v>96.53310248731484</v>
+      </c>
+      <c r="E91">
+        <v>154.7119312421929</v>
+      </c>
+      <c r="F91">
+        <v>162.5307381313485</v>
+      </c>
+      <c r="G91">
+        <v>87.5</v>
+      </c>
+      <c r="H91">
+        <v>174.8</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>116.472</v>
+      </c>
+      <c r="K91">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L91">
+        <v>21.872</v>
+      </c>
+      <c r="M91">
+        <v>3.673194681768476</v>
+      </c>
+      <c r="N91">
+        <v>18.19880531823152</v>
+      </c>
+      <c r="O91">
+        <v>3.45777301046399</v>
+      </c>
+      <c r="P91">
+        <v>14.74103230776753</v>
+      </c>
+      <c r="Q91">
+        <v>109.3410323077675</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.384314091057367</v>
+      </c>
+      <c r="T91">
+        <v>6.767614310876884</v>
+      </c>
+      <c r="U91">
+        <v>0.0226</v>
+      </c>
+      <c r="V91">
+        <v>0.19</v>
+      </c>
+      <c r="W91">
+        <v>0.018306</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>5.954489727582212</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.05856262104166723</v>
+      </c>
+      <c r="C92">
+        <v>19.68454160256201</v>
+      </c>
+      <c r="D92">
+        <v>96.54146780280207</v>
+      </c>
+      <c r="E92">
+        <v>156.5381193110844</v>
+      </c>
+      <c r="F92">
+        <v>164.3569262002401</v>
+      </c>
+      <c r="G92">
+        <v>87.5</v>
+      </c>
+      <c r="H92">
+        <v>174.8</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>116.472</v>
+      </c>
+      <c r="K92">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L92">
+        <v>21.872</v>
+      </c>
+      <c r="M92">
+        <v>3.714466532125425</v>
+      </c>
+      <c r="N92">
+        <v>18.15753346787458</v>
+      </c>
+      <c r="O92">
+        <v>3.44993135889617</v>
+      </c>
+      <c r="P92">
+        <v>14.70760210897841</v>
+      </c>
+      <c r="Q92">
+        <v>109.3076021089784</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4208722104166723</v>
+      </c>
+      <c r="T92">
+        <v>7.427352858453041</v>
+      </c>
+      <c r="U92">
+        <v>0.0226</v>
+      </c>
+      <c r="V92">
+        <v>0.19</v>
+      </c>
+      <c r="W92">
+        <v>0.018306</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>5.888328730609076</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.05855835206702407</v>
+      </c>
+      <c r="C93">
+        <v>17.86672029911773</v>
+      </c>
+      <c r="D93">
+        <v>96.54983456824934</v>
+      </c>
+      <c r="E93">
+        <v>158.364307379976</v>
+      </c>
+      <c r="F93">
+        <v>166.1831142691316</v>
+      </c>
+      <c r="G93">
+        <v>87.5</v>
+      </c>
+      <c r="H93">
+        <v>174.8</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>116.472</v>
+      </c>
+      <c r="K93">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L93">
+        <v>21.872</v>
+      </c>
+      <c r="M93">
+        <v>3.755738382482374</v>
+      </c>
+      <c r="N93">
+        <v>18.11626161751763</v>
+      </c>
+      <c r="O93">
+        <v>3.442089707328349</v>
+      </c>
+      <c r="P93">
+        <v>14.67417191018928</v>
+      </c>
+      <c r="Q93">
+        <v>109.2741719101893</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.4655543563002676</v>
+      </c>
+      <c r="T93">
+        <v>8.233699972157231</v>
+      </c>
+      <c r="U93">
+        <v>0.0226</v>
+      </c>
+      <c r="V93">
+        <v>0.19</v>
+      </c>
+      <c r="W93">
+        <v>0.018306</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>5.823621821481503</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.05855408309238093</v>
+      </c>
+      <c r="C94">
+        <v>16.04890044601035</v>
+      </c>
+      <c r="D94">
+        <v>96.55820278403355</v>
+      </c>
+      <c r="E94">
+        <v>160.1904954488676</v>
+      </c>
+      <c r="F94">
+        <v>168.0093023380232</v>
+      </c>
+      <c r="G94">
+        <v>87.5</v>
+      </c>
+      <c r="H94">
+        <v>174.8</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>116.472</v>
+      </c>
+      <c r="K94">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L94">
+        <v>21.872</v>
+      </c>
+      <c r="M94">
+        <v>3.797010232839324</v>
+      </c>
+      <c r="N94">
+        <v>18.07498976716068</v>
+      </c>
+      <c r="O94">
+        <v>3.434248055760529</v>
+      </c>
+      <c r="P94">
+        <v>14.64074171140015</v>
+      </c>
+      <c r="Q94">
+        <v>109.2407417114002</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.5214070386547619</v>
+      </c>
+      <c r="T94">
+        <v>9.241633864287472</v>
+      </c>
+      <c r="U94">
+        <v>0.0226</v>
+      </c>
+      <c r="V94">
+        <v>0.19</v>
+      </c>
+      <c r="W94">
+        <v>0.018306</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>5.760321584291487</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.05854981411773778</v>
+      </c>
+      <c r="C95">
+        <v>14.23108204361719</v>
+      </c>
+      <c r="D95">
+        <v>96.56657245053194</v>
+      </c>
+      <c r="E95">
+        <v>162.0166835177591</v>
+      </c>
+      <c r="F95">
+        <v>169.8354904069147</v>
+      </c>
+      <c r="G95">
+        <v>87.5</v>
+      </c>
+      <c r="H95">
+        <v>174.8</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>116.472</v>
+      </c>
+      <c r="K95">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L95">
+        <v>21.872</v>
+      </c>
+      <c r="M95">
+        <v>3.838282083196273</v>
+      </c>
+      <c r="N95">
+        <v>18.03371791680373</v>
+      </c>
+      <c r="O95">
+        <v>3.426406404192708</v>
+      </c>
+      <c r="P95">
+        <v>14.60731151261102</v>
+      </c>
+      <c r="Q95">
+        <v>109.207311512611</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.5932176302533974</v>
+      </c>
+      <c r="T95">
+        <v>10.53754886845492</v>
+      </c>
+      <c r="U95">
+        <v>0.0226</v>
+      </c>
+      <c r="V95">
+        <v>0.19</v>
+      </c>
+      <c r="W95">
+        <v>0.018306</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>5.698382642524912</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.05854554514309464</v>
+      </c>
+      <c r="C96">
+        <v>12.41326509231544</v>
+      </c>
+      <c r="D96">
+        <v>96.57494356812172</v>
+      </c>
+      <c r="E96">
+        <v>163.8428715866507</v>
+      </c>
+      <c r="F96">
+        <v>171.6616784758063</v>
+      </c>
+      <c r="G96">
+        <v>87.5</v>
+      </c>
+      <c r="H96">
+        <v>174.8</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>116.472</v>
+      </c>
+      <c r="K96">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L96">
+        <v>21.872</v>
+      </c>
+      <c r="M96">
+        <v>3.879553933553222</v>
+      </c>
+      <c r="N96">
+        <v>17.99244606644678</v>
+      </c>
+      <c r="O96">
+        <v>3.418564752624888</v>
+      </c>
+      <c r="P96">
+        <v>14.57388131382189</v>
+      </c>
+      <c r="Q96">
+        <v>109.1738813138219</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.6889650857182447</v>
+      </c>
+      <c r="T96">
+        <v>12.26543554067819</v>
+      </c>
+      <c r="U96">
+        <v>0.0226</v>
+      </c>
+      <c r="V96">
+        <v>0.19</v>
+      </c>
+      <c r="W96">
+        <v>0.018306</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>5.637761550583157</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.05854127616845149</v>
+      </c>
+      <c r="C97">
+        <v>10.59544959248254</v>
+      </c>
+      <c r="D97">
+        <v>96.58331613718039</v>
+      </c>
+      <c r="E97">
+        <v>165.6690596555422</v>
+      </c>
+      <c r="F97">
+        <v>173.4878665446979</v>
+      </c>
+      <c r="G97">
+        <v>87.5</v>
+      </c>
+      <c r="H97">
+        <v>174.8</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>116.472</v>
+      </c>
+      <c r="K97">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L97">
+        <v>21.872</v>
+      </c>
+      <c r="M97">
+        <v>3.920825783910171</v>
+      </c>
+      <c r="N97">
+        <v>17.95117421608983</v>
+      </c>
+      <c r="O97">
+        <v>3.410723101057068</v>
+      </c>
+      <c r="P97">
+        <v>14.54045111503276</v>
+      </c>
+      <c r="Q97">
+        <v>109.1404511150328</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.8230115233690308</v>
+      </c>
+      <c r="T97">
+        <v>14.68447688179077</v>
+      </c>
+      <c r="U97">
+        <v>0.0226</v>
+      </c>
+      <c r="V97">
+        <v>0.19</v>
+      </c>
+      <c r="W97">
+        <v>0.018306</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>5.578416692155966</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.05853700719380835</v>
+      </c>
+      <c r="C98">
+        <v>8.777635544496007</v>
+      </c>
+      <c r="D98">
+        <v>96.59169015808537</v>
+      </c>
+      <c r="E98">
+        <v>167.4952477244338</v>
+      </c>
+      <c r="F98">
+        <v>175.3140546135894</v>
+      </c>
+      <c r="G98">
+        <v>87.5</v>
+      </c>
+      <c r="H98">
+        <v>174.8</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>116.472</v>
+      </c>
+      <c r="K98">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L98">
+        <v>21.872</v>
+      </c>
+      <c r="M98">
+        <v>3.96209763426712</v>
+      </c>
+      <c r="N98">
+        <v>17.90990236573288</v>
+      </c>
+      <c r="O98">
+        <v>3.402881449489247</v>
+      </c>
+      <c r="P98">
+        <v>14.50702091624363</v>
+      </c>
+      <c r="Q98">
+        <v>109.1070209162436</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.024081179845208</v>
+      </c>
+      <c r="T98">
+        <v>18.31303889345959</v>
+      </c>
+      <c r="U98">
+        <v>0.0226</v>
+      </c>
+      <c r="V98">
+        <v>0.19</v>
+      </c>
+      <c r="W98">
+        <v>0.018306</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>5.520308184946009</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.05853273821916521</v>
+      </c>
+      <c r="C99">
+        <v>6.959822948733432</v>
+      </c>
+      <c r="D99">
+        <v>96.60006563121439</v>
+      </c>
+      <c r="E99">
+        <v>169.3214357933253</v>
+      </c>
+      <c r="F99">
+        <v>177.140242682481</v>
+      </c>
+      <c r="G99">
+        <v>87.5</v>
+      </c>
+      <c r="H99">
+        <v>174.8</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>116.472</v>
+      </c>
+      <c r="K99">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L99">
+        <v>21.872</v>
+      </c>
+      <c r="M99">
+        <v>4.003369484624069</v>
+      </c>
+      <c r="N99">
+        <v>17.86863051537593</v>
+      </c>
+      <c r="O99">
+        <v>3.395039797921427</v>
+      </c>
+      <c r="P99">
+        <v>14.4735907174545</v>
+      </c>
+      <c r="Q99">
+        <v>109.0735907174545</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.359197273972172</v>
+      </c>
+      <c r="T99">
+        <v>24.36064224624101</v>
+      </c>
+      <c r="U99">
+        <v>0.0226</v>
+      </c>
+      <c r="V99">
+        <v>0.19</v>
+      </c>
+      <c r="W99">
+        <v>0.018306</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>5.463397791286772</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.05852846924452206</v>
+      </c>
+      <c r="C100">
+        <v>5.142011805572736</v>
+      </c>
+      <c r="D100">
+        <v>96.60844255694526</v>
+      </c>
+      <c r="E100">
+        <v>171.1476238622169</v>
+      </c>
+      <c r="F100">
+        <v>178.9664307513725</v>
+      </c>
+      <c r="G100">
+        <v>87.5</v>
+      </c>
+      <c r="H100">
+        <v>174.8</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>116.472</v>
+      </c>
+      <c r="K100">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L100">
+        <v>21.872</v>
+      </c>
+      <c r="M100">
+        <v>4.044641334981018</v>
+      </c>
+      <c r="N100">
+        <v>17.82735866501898</v>
+      </c>
+      <c r="O100">
+        <v>3.387198146353606</v>
+      </c>
+      <c r="P100">
+        <v>14.44016051866537</v>
+      </c>
+      <c r="Q100">
+        <v>109.0401605186654</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.029429462226101</v>
+      </c>
+      <c r="T100">
+        <v>36.45584895180385</v>
+      </c>
+      <c r="U100">
+        <v>0.0226</v>
+      </c>
+      <c r="V100">
+        <v>0.19</v>
+      </c>
+      <c r="W100">
+        <v>0.018306</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>5.407648834232824</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.05852420026987891</v>
+      </c>
+      <c r="C101">
+        <v>3.32420211539187</v>
+      </c>
+      <c r="D101">
+        <v>96.61682093565592</v>
+      </c>
+      <c r="E101">
+        <v>172.9738119311085</v>
+      </c>
+      <c r="F101">
+        <v>180.7926188202641</v>
+      </c>
+      <c r="G101">
+        <v>87.5</v>
+      </c>
+      <c r="H101">
+        <v>174.8</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>116.472</v>
+      </c>
+      <c r="K101">
+        <v>94.60000000000001</v>
+      </c>
+      <c r="L101">
+        <v>21.872</v>
+      </c>
+      <c r="M101">
+        <v>4.085913185337968</v>
+      </c>
+      <c r="N101">
+        <v>17.78608681466203</v>
+      </c>
+      <c r="O101">
+        <v>3.379356494785786</v>
+      </c>
+      <c r="P101">
+        <v>14.40673031987625</v>
+      </c>
+      <c r="Q101">
+        <v>109.0067303198763</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.040126026987887</v>
+      </c>
+      <c r="T101">
+        <v>72.74146906849236</v>
+      </c>
+      <c r="U101">
+        <v>0.0226</v>
+      </c>
+      <c r="V101">
+        <v>0.19</v>
+      </c>
+      <c r="W101">
+        <v>0.018306</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>5.353026118735523</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
